--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2149766.57053886</v>
+        <v>-2151472.970938812</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1369218.879268445</v>
+        <v>1369218.879268446</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,23 +659,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.4093399017307</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>204.91038822729</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>92.65886647065565</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>40.12827460661848</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>112.3289263072337</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>151.8775244701632</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>21.6852316979506</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>208.6957123392362</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>104.4410152086438</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>366.2068480618377</v>
+        <v>366.2068480618378</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>348.7458981693648</v>
       </c>
       <c r="D11" t="n">
-        <v>338.1560480190401</v>
+        <v>338.1560480190402</v>
       </c>
       <c r="E11" t="n">
-        <v>64.20081572228383</v>
+        <v>68.65902462974492</v>
       </c>
       <c r="F11" t="n">
         <v>390.3490521400686</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>138.7065345151211</v>
+        <v>138.7065345151212</v>
       </c>
       <c r="T11" t="n">
-        <v>196.2364111887022</v>
+        <v>196.2364111887023</v>
       </c>
       <c r="U11" t="n">
         <v>234.6298310750337</v>
       </c>
       <c r="V11" t="n">
-        <v>311.225264868492</v>
+        <v>311.2252648684921</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>353.2041070768262</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>369.7109450544107</v>
+        <v>369.7109450544108</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0384876861059</v>
       </c>
       <c r="I12" t="n">
-        <v>45.91520282390995</v>
+        <v>45.91520282390996</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.74724517565424</v>
+        <v>21.74724517565427</v>
       </c>
       <c r="S12" t="n">
-        <v>148.2253550316742</v>
+        <v>148.2253550316743</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0743549119837</v>
+        <v>195.0743549119838</v>
       </c>
       <c r="U12" t="n">
         <v>225.8582965458904</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>150.719827496985</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>132.0884794165695</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.976932008745763</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>113.1601114455689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.038077768421</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>206.894747348054</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>269.7342844976747</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>144.3258297757327</v>
       </c>
       <c r="W13" t="n">
-        <v>269.9960047349481</v>
+        <v>269.9960047349482</v>
       </c>
       <c r="X13" t="n">
-        <v>209.1826617873943</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.84643144822954</v>
+        <v>202.057659750452</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>332.2224286194466</v>
       </c>
       <c r="E14" t="n">
-        <v>214.0043724267509</v>
+        <v>359.4697570710255</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>384.4154327404751</v>
       </c>
       <c r="G14" t="n">
         <v>390.4817716243987</v>
       </c>
       <c r="H14" t="n">
-        <v>292.8412250849389</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>97.01777179672057</v>
+        <v>97.01777179672065</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.7729151155276</v>
+        <v>132.7729151155277</v>
       </c>
       <c r="T14" t="n">
-        <v>190.3027917891087</v>
+        <v>190.3027917891088</v>
       </c>
       <c r="U14" t="n">
         <v>228.6962116754402</v>
       </c>
       <c r="V14" t="n">
-        <v>305.2916454688986</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>326.7803557161767</v>
+        <v>31.25508323044712</v>
       </c>
       <c r="X14" t="n">
         <v>347.2704876772327</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>363.7773256548173</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.0384876861059</v>
       </c>
       <c r="I15" t="n">
-        <v>45.91520282390995</v>
+        <v>45.91520282390996</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.74724517565424</v>
+        <v>21.74724517565426</v>
       </c>
       <c r="S15" t="n">
         <v>148.2253550316742</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.70464488056142</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.2264920459754</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.1044583688276</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>200.9611279484605</v>
       </c>
       <c r="U16" t="n">
         <v>263.8006650980811</v>
       </c>
       <c r="V16" t="n">
-        <v>229.6770303225917</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>264.0623853353547</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>29.54258093184009</v>
       </c>
       <c r="Y16" t="n">
         <v>196.1240403508585</v>
@@ -1862,7 +1862,7 @@
         <v>233.2640155489678</v>
       </c>
       <c r="I17" t="n">
-        <v>37.4405622607495</v>
+        <v>37.44056226074953</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.19570557955653</v>
+        <v>73.19570557955656</v>
       </c>
       <c r="T17" t="n">
         <v>130.7255822531376</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.74724517565426</v>
+        <v>21.74724517565427</v>
       </c>
       <c r="S18" t="n">
-        <v>148.2253550316742</v>
+        <v>148.2253550316743</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0743549119837</v>
+        <v>195.0743549119838</v>
       </c>
       <c r="U18" t="n">
         <v>225.8582965458904</v>
@@ -2011,16 +2011,16 @@
         <v>64.39614010936175</v>
       </c>
       <c r="F19" t="n">
-        <v>63.38322548572383</v>
+        <v>34.26934642329377</v>
       </c>
       <c r="G19" t="n">
         <v>84.89438377307194</v>
       </c>
       <c r="H19" t="n">
-        <v>52.84091050199042</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.57245926843738</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.64928251000433</v>
+        <v>47.64928251000434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.5272488328564</v>
       </c>
       <c r="T19" t="n">
         <v>141.3839184124893</v>
@@ -2099,7 +2099,7 @@
         <v>233.2640155489678</v>
       </c>
       <c r="I20" t="n">
-        <v>37.4405622607495</v>
+        <v>37.44056226074952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.19570557955653</v>
+        <v>73.19570557955591</v>
       </c>
       <c r="T20" t="n">
         <v>130.7255822531376</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.74724517565426</v>
+        <v>21.74724517565427</v>
       </c>
       <c r="S21" t="n">
-        <v>148.2253550316742</v>
+        <v>148.2253550316743</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0743549119837</v>
+        <v>195.0743549119838</v>
       </c>
       <c r="U21" t="n">
         <v>225.8582965458904</v>
@@ -2242,7 +2242,7 @@
         <v>85.20899856142042</v>
       </c>
       <c r="D22" t="n">
-        <v>66.57765048100494</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>64.39614010936175</v>
@@ -2254,10 +2254,10 @@
         <v>84.89438377307194</v>
       </c>
       <c r="H22" t="n">
-        <v>70.77589505096434</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>37.46377141857553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.64928251000433</v>
+        <v>47.64928251000434</v>
       </c>
       <c r="S22" t="n">
         <v>123.5272488328564</v>
@@ -2305,7 +2305,7 @@
         <v>143.6718328518297</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.65705670149343</v>
+        <v>136.5468308148874</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>272.6452190834755</v>
       </c>
       <c r="E23" t="n">
-        <v>299.8925475350553</v>
+        <v>299.8925475350543</v>
       </c>
       <c r="F23" t="n">
         <v>324.8382232045039</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.19570557955649</v>
+        <v>73.1957055795565</v>
       </c>
       <c r="T23" t="n">
         <v>130.7255822531376</v>
@@ -2384,7 +2384,7 @@
         <v>287.6932781412615</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.2001161188462</v>
+        <v>304.2001161188461</v>
       </c>
     </row>
     <row r="24">
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.74724517565426</v>
+        <v>21.74724517565427</v>
       </c>
       <c r="S24" t="n">
-        <v>148.2253550316742</v>
+        <v>148.2253550316743</v>
       </c>
       <c r="T24" t="n">
-        <v>195.0743549119837</v>
+        <v>195.0743549119838</v>
       </c>
       <c r="U24" t="n">
         <v>225.8582965458904</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.79415764472984</v>
+        <v>97.79415764472982</v>
       </c>
       <c r="C25" t="n">
-        <v>85.20899856142037</v>
+        <v>85.20899856142036</v>
       </c>
       <c r="D25" t="n">
-        <v>66.57765048100489</v>
+        <v>66.57765048100488</v>
       </c>
       <c r="E25" t="n">
-        <v>64.39614010936171</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>63.38322548572378</v>
+        <v>63.38322548572377</v>
       </c>
       <c r="G25" t="n">
-        <v>84.89438377307189</v>
+        <v>84.89438377307188</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.77589505096428</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.64928251000427</v>
+        <v>12.15564850597387</v>
       </c>
       <c r="S25" t="n">
-        <v>94.41336977042775</v>
+        <v>123.5272488328564</v>
       </c>
       <c r="T25" t="n">
         <v>141.3839184124893</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>294.7623997266795</v>
+        <v>294.7623997266796</v>
       </c>
       <c r="C26" t="n">
         <v>277.3014498342066</v>
       </c>
       <c r="D26" t="n">
-        <v>266.7115996838819</v>
+        <v>266.711599683882</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>293.9589281354608</v>
       </c>
       <c r="F26" t="n">
         <v>318.9046038049104</v>
@@ -2573,7 +2573,7 @@
         <v>227.3303961493742</v>
       </c>
       <c r="I26" t="n">
-        <v>31.50694286115592</v>
+        <v>31.50694286115593</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.26208617996294</v>
+        <v>155.233528116764</v>
       </c>
       <c r="T26" t="n">
         <v>124.7919628535441</v>
@@ -2612,10 +2612,10 @@
         <v>163.1853827398755</v>
       </c>
       <c r="V26" t="n">
-        <v>239.7808165333339</v>
+        <v>240.8136655904348</v>
       </c>
       <c r="W26" t="n">
-        <v>262.3023758377133</v>
+        <v>261.269526780612</v>
       </c>
       <c r="X26" t="n">
         <v>281.759658741668</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.86053824513627</v>
+        <v>91.86053824513628</v>
       </c>
       <c r="C28" t="n">
-        <v>79.27537916182681</v>
+        <v>79.27537916182682</v>
       </c>
       <c r="D28" t="n">
-        <v>60.64403108141133</v>
+        <v>60.64403108141134</v>
       </c>
       <c r="E28" t="n">
-        <v>58.46252070976814</v>
+        <v>58.46252070976816</v>
       </c>
       <c r="F28" t="n">
-        <v>57.44960608613022</v>
+        <v>57.44960608613023</v>
       </c>
       <c r="G28" t="n">
-        <v>78.96076437347833</v>
+        <v>78.96076437347834</v>
       </c>
       <c r="H28" t="n">
-        <v>64.84227565137071</v>
+        <v>64.84227565137073</v>
       </c>
       <c r="I28" t="n">
-        <v>35.63883986884377</v>
+        <v>35.63883986884379</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.71566311041072</v>
+        <v>41.71566311041074</v>
       </c>
       <c r="S28" t="n">
         <v>117.5936294332628</v>
       </c>
       <c r="T28" t="n">
-        <v>135.4502990128957</v>
+        <v>135.4502990128958</v>
       </c>
       <c r="U28" t="n">
-        <v>198.2898361625164</v>
+        <v>198.2898361625165</v>
       </c>
       <c r="V28" t="n">
         <v>164.166201387027</v>
@@ -2776,7 +2776,7 @@
         <v>198.55155639979</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7382134522361</v>
+        <v>137.7382134522362</v>
       </c>
       <c r="Y28" t="n">
         <v>130.6132114152938</v>
@@ -2792,7 +2792,7 @@
         <v>300.6960191262731</v>
       </c>
       <c r="C29" t="n">
-        <v>283.2350692338</v>
+        <v>283.2350692338001</v>
       </c>
       <c r="D29" t="n">
         <v>272.6452190834755</v>
@@ -2810,7 +2810,7 @@
         <v>233.2640155489677</v>
       </c>
       <c r="I29" t="n">
-        <v>37.44056226074945</v>
+        <v>37.44056226074946</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.19570557955646</v>
+        <v>73.19570557955649</v>
       </c>
       <c r="T29" t="n">
         <v>130.7255822531376</v>
@@ -2858,7 +2858,7 @@
         <v>287.6932781412615</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.200116118846</v>
+        <v>304.2001161188461</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>100.0384876861059</v>
       </c>
       <c r="I30" t="n">
-        <v>45.91520282390997</v>
+        <v>45.91520282390996</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.74724517565429</v>
+        <v>21.74724517565427</v>
       </c>
       <c r="S30" t="n">
         <v>148.2253550316743</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.79415764472978</v>
+        <v>97.79415764472982</v>
       </c>
       <c r="C31" t="n">
-        <v>85.20899856142032</v>
+        <v>85.20899856142036</v>
       </c>
       <c r="D31" t="n">
-        <v>66.57765048100484</v>
+        <v>66.57765048100488</v>
       </c>
       <c r="E31" t="n">
-        <v>64.39614010936165</v>
+        <v>64.3961401093617</v>
       </c>
       <c r="F31" t="n">
-        <v>63.38322548572373</v>
+        <v>63.38322548572377</v>
       </c>
       <c r="G31" t="n">
-        <v>84.89438377307184</v>
+        <v>84.89438377307188</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.5724592684373</v>
+        <v>18.53540344757604</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.5272488328563</v>
+        <v>123.5272488328564</v>
       </c>
       <c r="T31" t="n">
-        <v>118.3468625916281</v>
+        <v>141.3839184124893</v>
       </c>
       <c r="U31" t="n">
-        <v>204.2234555621099</v>
+        <v>204.22345556211</v>
       </c>
       <c r="V31" t="n">
         <v>170.0998207866205</v>
@@ -3013,7 +3013,7 @@
         <v>204.4851757993835</v>
       </c>
       <c r="X31" t="n">
-        <v>143.6718328518296</v>
+        <v>143.6718328518297</v>
       </c>
       <c r="Y31" t="n">
         <v>136.5468308148873</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>294.7623997266795</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>277.3014498342065</v>
@@ -3080,13 +3080,13 @@
         <v>67.26208617996292</v>
       </c>
       <c r="T32" t="n">
-        <v>124.791962853544</v>
+        <v>125.8248119106459</v>
       </c>
       <c r="U32" t="n">
         <v>163.1853827398755</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>239.7808165333338</v>
       </c>
       <c r="W32" t="n">
         <v>261.269526780612</v>
@@ -3095,7 +3095,7 @@
         <v>281.759658741668</v>
       </c>
       <c r="Y32" t="n">
-        <v>299.2993457763542</v>
+        <v>298.2664967192525</v>
       </c>
     </row>
     <row r="33">
@@ -3202,7 +3202,7 @@
         <v>78.96076437347831</v>
       </c>
       <c r="H34" t="n">
-        <v>64.84227565137071</v>
+        <v>64.8422756513707</v>
       </c>
       <c r="I34" t="n">
         <v>35.63883986884376</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71566311041072</v>
+        <v>41.71566311041071</v>
       </c>
       <c r="S34" t="n">
         <v>117.5936294332628</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.7623997266795</v>
+        <v>294.7623997266796</v>
       </c>
       <c r="C35" t="n">
-        <v>277.3014498342065</v>
+        <v>277.3014498342066</v>
       </c>
       <c r="D35" t="n">
-        <v>266.7115996838829</v>
+        <v>266.711599683882</v>
       </c>
       <c r="E35" t="n">
-        <v>293.9589281354607</v>
+        <v>293.9589281354608</v>
       </c>
       <c r="F35" t="n">
         <v>318.9046038049104</v>
@@ -3284,7 +3284,7 @@
         <v>227.3303961493742</v>
       </c>
       <c r="I35" t="n">
-        <v>31.50694286115591</v>
+        <v>31.50694286115593</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.26208617996292</v>
+        <v>67.26208617996295</v>
       </c>
       <c r="T35" t="n">
-        <v>124.791962853544</v>
+        <v>124.7919628535427</v>
       </c>
       <c r="U35" t="n">
         <v>163.1853827398755</v>
       </c>
       <c r="V35" t="n">
-        <v>239.7808165333338</v>
+        <v>239.7808165333339</v>
       </c>
       <c r="W35" t="n">
         <v>261.269526780612</v>
@@ -3332,7 +3332,7 @@
         <v>281.759658741668</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.2664967192525</v>
+        <v>298.2664967192526</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>100.0384876861059</v>
       </c>
       <c r="I36" t="n">
-        <v>45.91520282390997</v>
+        <v>45.91520282390996</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.74724517565429</v>
+        <v>21.74724517565427</v>
       </c>
       <c r="S36" t="n">
         <v>148.2253550316743</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.86053824513624</v>
+        <v>91.86053824513628</v>
       </c>
       <c r="C37" t="n">
-        <v>79.27537916182678</v>
+        <v>79.27537916182682</v>
       </c>
       <c r="D37" t="n">
-        <v>60.6440310814113</v>
+        <v>60.64403108141134</v>
       </c>
       <c r="E37" t="n">
-        <v>58.46252070976811</v>
+        <v>58.46252070976816</v>
       </c>
       <c r="F37" t="n">
-        <v>57.44960608613019</v>
+        <v>57.44960608613023</v>
       </c>
       <c r="G37" t="n">
-        <v>78.9607643734783</v>
+        <v>78.96076437347834</v>
       </c>
       <c r="H37" t="n">
-        <v>64.84227565137068</v>
+        <v>64.84227565137073</v>
       </c>
       <c r="I37" t="n">
-        <v>35.63883986884376</v>
+        <v>35.63883986884379</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71566311041071</v>
+        <v>41.71566311041074</v>
       </c>
       <c r="S37" t="n">
         <v>117.5936294332628</v>
       </c>
       <c r="T37" t="n">
-        <v>135.4502990128957</v>
+        <v>135.4502990128958</v>
       </c>
       <c r="U37" t="n">
-        <v>198.2898361625164</v>
+        <v>198.2898361625165</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1662013870269</v>
+        <v>164.166201387027</v>
       </c>
       <c r="W37" t="n">
-        <v>198.5515563997899</v>
+        <v>198.55155639979</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7382134522361</v>
+        <v>137.7382134522362</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.6132114152937</v>
+        <v>130.6132114152938</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3566,7 @@
         <v>261.269526780612</v>
       </c>
       <c r="X38" t="n">
-        <v>281.7596587416678</v>
+        <v>281.7596587416669</v>
       </c>
       <c r="Y38" t="n">
         <v>298.2664967192526</v>
@@ -3676,7 +3676,7 @@
         <v>78.96076437347836</v>
       </c>
       <c r="H40" t="n">
-        <v>64.84227565137074</v>
+        <v>64.84227565137076</v>
       </c>
       <c r="I40" t="n">
         <v>35.6388398688438</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71566311041075</v>
+        <v>41.71566311041076</v>
       </c>
       <c r="S40" t="n">
-        <v>117.5936294332628</v>
+        <v>117.5936294332629</v>
       </c>
       <c r="T40" t="n">
         <v>135.4502990128958</v>
@@ -3743,7 +3743,7 @@
         <v>277.3014498342066</v>
       </c>
       <c r="D41" t="n">
-        <v>266.711599683882</v>
+        <v>266.7115996838813</v>
       </c>
       <c r="E41" t="n">
         <v>293.9589281354608</v>
@@ -3758,7 +3758,7 @@
         <v>227.3303961493742</v>
       </c>
       <c r="I41" t="n">
-        <v>31.50694286115595</v>
+        <v>31.50694286115593</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.26208617996296</v>
+        <v>67.26208617996295</v>
       </c>
       <c r="T41" t="n">
         <v>124.7919628535441</v>
       </c>
       <c r="U41" t="n">
-        <v>163.185382739875</v>
+        <v>163.1853827398755</v>
       </c>
       <c r="V41" t="n">
         <v>239.7808165333339</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.8605382451363</v>
+        <v>91.86053824513628</v>
       </c>
       <c r="C43" t="n">
-        <v>79.27537916182683</v>
+        <v>79.27537916182682</v>
       </c>
       <c r="D43" t="n">
-        <v>60.64403108141136</v>
+        <v>60.64403108141134</v>
       </c>
       <c r="E43" t="n">
-        <v>58.46252070976817</v>
+        <v>58.46252070976816</v>
       </c>
       <c r="F43" t="n">
-        <v>57.44960608613025</v>
+        <v>57.44960608613023</v>
       </c>
       <c r="G43" t="n">
-        <v>78.96076437347836</v>
+        <v>78.96076437347834</v>
       </c>
       <c r="H43" t="n">
-        <v>64.84227565137076</v>
+        <v>64.84227565137074</v>
       </c>
       <c r="I43" t="n">
-        <v>35.6388398688438</v>
+        <v>35.63883986884379</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71566311041076</v>
+        <v>41.71566311041074</v>
       </c>
       <c r="S43" t="n">
-        <v>117.5936294332629</v>
+        <v>117.5936294332628</v>
       </c>
       <c r="T43" t="n">
         <v>135.4502990128958</v>
@@ -3995,7 +3995,7 @@
         <v>227.3303961493742</v>
       </c>
       <c r="I44" t="n">
-        <v>31.50694286115589</v>
+        <v>31.50694286115591</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.26208617996292</v>
+        <v>67.26208617996294</v>
       </c>
       <c r="T44" t="n">
         <v>124.791962853544</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.86053824513624</v>
+        <v>91.86053824513625</v>
       </c>
       <c r="C46" t="n">
-        <v>79.27537916182678</v>
+        <v>79.27537916182679</v>
       </c>
       <c r="D46" t="n">
-        <v>60.6440310814113</v>
+        <v>60.64403108141131</v>
       </c>
       <c r="E46" t="n">
-        <v>58.46252070976811</v>
+        <v>58.46252070976813</v>
       </c>
       <c r="F46" t="n">
-        <v>57.44960608613019</v>
+        <v>57.4496060861302</v>
       </c>
       <c r="G46" t="n">
-        <v>78.9607643734783</v>
+        <v>78.96076437347831</v>
       </c>
       <c r="H46" t="n">
-        <v>64.8422756513707</v>
+        <v>64.84227565137071</v>
       </c>
       <c r="I46" t="n">
-        <v>35.63883986884375</v>
+        <v>35.63883986884376</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.7156631104107</v>
+        <v>41.71566311041072</v>
       </c>
       <c r="S46" t="n">
         <v>117.5936294332628</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="C2" t="n">
-        <v>513.1241971476163</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="D2" t="n">
-        <v>513.1241971476163</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="E2" t="n">
-        <v>269.6754205035162</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="F2" t="n">
+        <v>278.1872303756613</v>
+      </c>
+      <c r="G2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>521.6360070197613</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>467.0948956420016</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C3" t="n">
-        <v>292.6418663608746</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D3" t="n">
-        <v>292.6418663608746</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>870.4623408938123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>870.4623408938123</v>
+        <v>822.3540153497659</v>
       </c>
       <c r="U3" t="n">
-        <v>870.4623408938123</v>
+        <v>594.130397086155</v>
       </c>
       <c r="V3" t="n">
-        <v>635.3102326620697</v>
+        <v>594.130397086155</v>
       </c>
       <c r="W3" t="n">
-        <v>635.3102326620697</v>
+        <v>594.130397086155</v>
       </c>
       <c r="X3" t="n">
-        <v>635.3102326620697</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y3" t="n">
-        <v>635.3102326620697</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="4">
@@ -4510,10 +4510,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.1934816808115</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="C5" t="n">
-        <v>376.1934816808115</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="D5" t="n">
-        <v>376.1934816808115</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="E5" t="n">
-        <v>376.1934816808115</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="F5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>376.1934816808115</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="V5" t="n">
-        <v>376.1934816808115</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="W5" t="n">
-        <v>376.1934816808115</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="X5" t="n">
-        <v>376.1934816808115</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="Y5" t="n">
-        <v>376.1934816808115</v>
+        <v>756.5729737917163</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,10 +4650,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>536.058640635238</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>536.058640635238</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X6" t="n">
-        <v>328.2071404297052</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="Y6" t="n">
-        <v>328.2071404297052</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4741,25 +4741,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4835,19 +4835,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>513.1241971476163</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.7661011803829</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C9" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>432.4774131586771</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>432.4774131586771</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>326.981438200451</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X9" t="n">
-        <v>326.981438200451</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y9" t="n">
-        <v>326.981438200451</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="10">
@@ -4993,7 +4993,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
         <v>19.28114311021272</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1680.319461371923</v>
+        <v>2037.091286702051</v>
       </c>
       <c r="C11" t="n">
-        <v>1680.319461371923</v>
+        <v>1684.822702692591</v>
       </c>
       <c r="D11" t="n">
-        <v>1338.747695696125</v>
+        <v>1343.250937016793</v>
       </c>
       <c r="E11" t="n">
         <v>1273.898386885737</v>
       </c>
       <c r="F11" t="n">
-        <v>879.6064150270818</v>
+        <v>879.6064150270821</v>
       </c>
       <c r="G11" t="n">
-        <v>479.1868281341604</v>
+        <v>479.1868281341608</v>
       </c>
       <c r="H11" t="n">
         <v>177.3940559275623</v>
       </c>
       <c r="I11" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J11" t="n">
-        <v>259.9016362724437</v>
+        <v>259.9016362724439</v>
       </c>
       <c r="K11" t="n">
-        <v>660.1599236624254</v>
+        <v>660.1599236624252</v>
       </c>
       <c r="L11" t="n">
         <v>1208.992349970758</v>
@@ -5057,7 +5057,7 @@
         <v>3001.998199866673</v>
       </c>
       <c r="P11" t="n">
-        <v>3427.685734150425</v>
+        <v>3427.685734150424</v>
       </c>
       <c r="Q11" t="n">
         <v>3670.137584443059</v>
@@ -5066,13 +5066,13 @@
         <v>3670.137584443059</v>
       </c>
       <c r="S11" t="n">
-        <v>3530.029973821725</v>
+        <v>3530.029973821724</v>
       </c>
       <c r="T11" t="n">
         <v>3331.811376661419</v>
       </c>
       <c r="U11" t="n">
-        <v>3094.811547292697</v>
+        <v>3094.811547292698</v>
       </c>
       <c r="V11" t="n">
         <v>2780.442592880079</v>
@@ -5081,10 +5081,10 @@
         <v>2780.442592880079</v>
       </c>
       <c r="X11" t="n">
-        <v>2423.670767549952</v>
+        <v>2780.442592880079</v>
       </c>
       <c r="Y11" t="n">
-        <v>2050.225368505092</v>
+        <v>2406.99719383522</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I12" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J12" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="K12" t="n">
-        <v>335.2038640395274</v>
+        <v>400.6516813300653</v>
       </c>
       <c r="L12" t="n">
-        <v>836.6348312552045</v>
+        <v>902.0826485457424</v>
       </c>
       <c r="M12" t="n">
-        <v>1473.760340665426</v>
+        <v>1181.15857129078</v>
       </c>
       <c r="N12" t="n">
-        <v>1668.906729270954</v>
+        <v>1850.853910496426</v>
       </c>
       <c r="O12" t="n">
-        <v>2215.13145078868</v>
+        <v>2007.15493593019</v>
       </c>
       <c r="P12" t="n">
-        <v>2636.521878151349</v>
+        <v>2428.545363292858</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.535935070558</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.0646091861342</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="C13" t="n">
-        <v>208.8223591891797</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="D13" t="n">
-        <v>75.39965270779631</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="E13" t="n">
-        <v>75.39965270779631</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="F13" t="n">
-        <v>75.39965270779631</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="G13" t="n">
-        <v>75.39965270779631</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="H13" t="n">
-        <v>75.39965270779631</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="I13" t="n">
-        <v>75.39965270779631</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J13" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="K13" t="n">
-        <v>189.4977544484591</v>
+        <v>189.497754448459</v>
       </c>
       <c r="L13" t="n">
-        <v>389.0101729911329</v>
+        <v>389.0101729911327</v>
       </c>
       <c r="M13" t="n">
-        <v>608.8677478767993</v>
+        <v>608.8677478767989</v>
       </c>
       <c r="N13" t="n">
-        <v>829.3212626778979</v>
+        <v>829.3212626778975</v>
       </c>
       <c r="O13" t="n">
-        <v>1018.178493156265</v>
+        <v>1018.178493156264</v>
       </c>
       <c r="P13" t="n">
         <v>1158.619240190945</v>
       </c>
       <c r="Q13" t="n">
-        <v>1177.451767958419</v>
+        <v>1177.451767958418</v>
       </c>
       <c r="R13" t="n">
-        <v>1063.148625084107</v>
+        <v>1177.451767958418</v>
       </c>
       <c r="S13" t="n">
-        <v>872.2010717826716</v>
+        <v>1177.451767958418</v>
       </c>
       <c r="T13" t="n">
-        <v>872.2010717826716</v>
+        <v>968.4671746775556</v>
       </c>
       <c r="U13" t="n">
-        <v>872.2010717826716</v>
+        <v>696.0083014475813</v>
       </c>
       <c r="V13" t="n">
-        <v>872.2010717826716</v>
+        <v>550.2246350074472</v>
       </c>
       <c r="W13" t="n">
-        <v>599.4778346766634</v>
+        <v>277.501397901439</v>
       </c>
       <c r="X13" t="n">
-        <v>388.1822167095984</v>
+        <v>277.501397901439</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.0646091861342</v>
+        <v>73.40275168886117</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1759.645022721212</v>
+        <v>1999.078954337182</v>
       </c>
       <c r="C14" t="n">
-        <v>1413.369993660836</v>
+        <v>1652.803925276807</v>
       </c>
       <c r="D14" t="n">
-        <v>1077.791782934123</v>
+        <v>1317.225714550093</v>
       </c>
       <c r="E14" t="n">
-        <v>861.6257501798291</v>
+        <v>954.1249498318859</v>
       </c>
       <c r="F14" t="n">
-        <v>861.6257501798291</v>
+        <v>565.8265329223151</v>
       </c>
       <c r="G14" t="n">
-        <v>467.199718235992</v>
+        <v>171.400500978478</v>
       </c>
       <c r="H14" t="n">
-        <v>171.4005009784779</v>
+        <v>171.400500978478</v>
       </c>
       <c r="I14" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J14" t="n">
-        <v>259.901636272444</v>
+        <v>259.9016362724439</v>
       </c>
       <c r="K14" t="n">
-        <v>660.1599236624254</v>
+        <v>660.1599236624252</v>
       </c>
       <c r="L14" t="n">
         <v>1208.992349970758</v>
@@ -5294,7 +5294,7 @@
         <v>3001.998199866673</v>
       </c>
       <c r="P14" t="n">
-        <v>3427.685734150425</v>
+        <v>3427.685734150424</v>
       </c>
       <c r="Q14" t="n">
         <v>3670.137584443059</v>
@@ -5312,16 +5312,16 @@
         <v>3112.792212139951</v>
       </c>
       <c r="V14" t="n">
-        <v>2804.416812676417</v>
+        <v>3112.792212139951</v>
       </c>
       <c r="W14" t="n">
-        <v>2474.33564528634</v>
+        <v>3081.221420998086</v>
       </c>
       <c r="X14" t="n">
-        <v>2123.557374905297</v>
+        <v>2730.443150617043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2123.557374905297</v>
+        <v>2362.991306521268</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2000.046991911547</v>
+        <v>987.4453425390458</v>
       </c>
       <c r="C15" t="n">
-        <v>1825.59396263042</v>
+        <v>812.9923132579188</v>
       </c>
       <c r="D15" t="n">
-        <v>1676.659552969169</v>
+        <v>664.0579035966675</v>
       </c>
       <c r="E15" t="n">
-        <v>1517.422097963713</v>
+        <v>504.8204485912121</v>
       </c>
       <c r="F15" t="n">
-        <v>1370.887539990598</v>
+        <v>358.285890618097</v>
       </c>
       <c r="G15" t="n">
-        <v>1233.432371273499</v>
+        <v>220.8307219009984</v>
       </c>
       <c r="H15" t="n">
-        <v>1132.383393812786</v>
+        <v>119.7817444402854</v>
       </c>
       <c r="I15" t="n">
-        <v>1086.004401061362</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J15" t="n">
-        <v>1086.004401061362</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="K15" t="n">
-        <v>1151.432746060114</v>
+        <v>400.6516813300653</v>
       </c>
       <c r="L15" t="n">
-        <v>1652.863713275791</v>
+        <v>534.9507066953179</v>
       </c>
       <c r="M15" t="n">
-        <v>2289.989222686012</v>
+        <v>1172.07621610554</v>
       </c>
       <c r="N15" t="n">
-        <v>2863.455559868927</v>
+        <v>1460.930214412464</v>
       </c>
       <c r="O15" t="n">
-        <v>3019.756585302691</v>
+        <v>2007.15493593019</v>
       </c>
       <c r="P15" t="n">
-        <v>3441.14701266536</v>
+        <v>2428.545363292858</v>
       </c>
       <c r="Q15" t="n">
-        <v>3670.137584443059</v>
+        <v>2657.535935070558</v>
       </c>
       <c r="R15" t="n">
-        <v>3648.170670124216</v>
+        <v>2635.569020751715</v>
       </c>
       <c r="S15" t="n">
-        <v>3498.448089284142</v>
+        <v>2485.84643991164</v>
       </c>
       <c r="T15" t="n">
-        <v>3301.403286342744</v>
+        <v>2288.801636970242</v>
       </c>
       <c r="U15" t="n">
-        <v>3073.263592862046</v>
+        <v>2060.661943489545</v>
       </c>
       <c r="V15" t="n">
-        <v>2838.111484630303</v>
+        <v>1825.509835257802</v>
       </c>
       <c r="W15" t="n">
-        <v>2583.874127902102</v>
+        <v>1571.2724785296</v>
       </c>
       <c r="X15" t="n">
-        <v>2376.022627696569</v>
+        <v>1363.420978324068</v>
       </c>
       <c r="Y15" t="n">
-        <v>2168.262328931615</v>
+        <v>1155.660679559114</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.8821909621559</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="C16" t="n">
-        <v>150.8821909621559</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="D16" t="n">
-        <v>150.8821909621559</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="E16" t="n">
-        <v>150.8821909621559</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="F16" t="n">
-        <v>150.8821909621559</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="G16" t="n">
-        <v>150.8821909621559</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="H16" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="I16" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J16" t="n">
-        <v>77.31987220580049</v>
+        <v>77.31987220580035</v>
       </c>
       <c r="K16" t="n">
-        <v>199.2891581709959</v>
+        <v>199.2891581709957</v>
       </c>
       <c r="L16" t="n">
-        <v>404.6758599192673</v>
+        <v>404.6758599192671</v>
       </c>
       <c r="M16" t="n">
-        <v>630.4077180105312</v>
+        <v>630.4077180105309</v>
       </c>
       <c r="N16" t="n">
-        <v>856.7355160172276</v>
+        <v>856.735516017227</v>
       </c>
       <c r="O16" t="n">
-        <v>1051.467029701192</v>
+        <v>1051.467029701191</v>
       </c>
       <c r="P16" t="n">
-        <v>1197.78205994147</v>
+        <v>1197.782059941469</v>
       </c>
       <c r="Q16" t="n">
         <v>1222.488870914541</v>
       </c>
       <c r="R16" t="n">
-        <v>1114.179282989313</v>
+        <v>1222.488870914541</v>
       </c>
       <c r="S16" t="n">
-        <v>1114.179282989313</v>
+        <v>1037.53487256219</v>
       </c>
       <c r="T16" t="n">
-        <v>1114.179282989313</v>
+        <v>834.5438342304112</v>
       </c>
       <c r="U16" t="n">
-        <v>847.7139647084234</v>
+        <v>568.078515949521</v>
       </c>
       <c r="V16" t="n">
-        <v>615.7169643825732</v>
+        <v>568.078515949521</v>
       </c>
       <c r="W16" t="n">
-        <v>348.9872822256493</v>
+        <v>301.3488337925971</v>
       </c>
       <c r="X16" t="n">
-        <v>348.9872822256493</v>
+        <v>271.5078429523546</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.8821909621559</v>
+        <v>73.40275168886117</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1873.625174875709</v>
+        <v>1873.625174875708</v>
       </c>
       <c r="C17" t="n">
         <v>1587.529145346617</v>
       </c>
       <c r="D17" t="n">
-        <v>1312.129934151188</v>
+        <v>1312.129934151187</v>
       </c>
       <c r="E17" t="n">
         <v>1009.208168964264</v>
       </c>
       <c r="F17" t="n">
-        <v>681.0887515859772</v>
+        <v>681.0887515859765</v>
       </c>
       <c r="G17" t="n">
-        <v>346.8417191734241</v>
+        <v>346.8417191734234</v>
       </c>
       <c r="H17" t="n">
-        <v>111.221501447194</v>
+        <v>111.2215014471933</v>
       </c>
       <c r="I17" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J17" t="n">
-        <v>259.9016362724439</v>
+        <v>259.9016362724442</v>
       </c>
       <c r="K17" t="n">
         <v>660.1599236624252</v>
       </c>
       <c r="L17" t="n">
-        <v>1208.992349970759</v>
+        <v>1208.992349970758</v>
       </c>
       <c r="M17" t="n">
-        <v>1836.280718398997</v>
+        <v>1836.280718398996</v>
       </c>
       <c r="N17" t="n">
         <v>2459.087270892388</v>
@@ -5531,7 +5531,7 @@
         <v>3001.998199866673</v>
       </c>
       <c r="P17" t="n">
-        <v>3427.685734150425</v>
+        <v>3427.685734150424</v>
       </c>
       <c r="Q17" t="n">
         <v>3670.137584443059</v>
@@ -5552,10 +5552,10 @@
         <v>3045.132810801553</v>
       </c>
       <c r="W17" t="n">
-        <v>2775.23064294276</v>
+        <v>2775.230642942759</v>
       </c>
       <c r="X17" t="n">
-        <v>2484.631372093001</v>
+        <v>2484.631372093</v>
       </c>
       <c r="Y17" t="n">
         <v>2177.35852752851</v>
@@ -5589,28 +5589,28 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I18" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J18" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="K18" t="n">
-        <v>138.8310966876126</v>
+        <v>335.0884813848821</v>
       </c>
       <c r="L18" t="n">
-        <v>640.2620639032897</v>
+        <v>469.3875067501347</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.387573313511</v>
+        <v>1106.513016160356</v>
       </c>
       <c r="N18" t="n">
-        <v>1668.906729270954</v>
+        <v>1776.208355366001</v>
       </c>
       <c r="O18" t="n">
-        <v>2215.13145078868</v>
+        <v>2322.433076883728</v>
       </c>
       <c r="P18" t="n">
-        <v>2636.521878151349</v>
+        <v>2428.545363292858</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.535935070558</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>536.9116084373559</v>
+        <v>412.1366096162884</v>
       </c>
       <c r="C19" t="n">
-        <v>450.8419129207696</v>
+        <v>326.0669140997021</v>
       </c>
       <c r="D19" t="n">
-        <v>383.5917609197545</v>
+        <v>258.8167620986872</v>
       </c>
       <c r="E19" t="n">
-        <v>318.5451547486823</v>
+        <v>193.7701559276147</v>
       </c>
       <c r="F19" t="n">
-        <v>254.5216946620926</v>
+        <v>159.1546544899439</v>
       </c>
       <c r="G19" t="n">
-        <v>168.7697918610098</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="H19" t="n">
-        <v>115.3951347882929</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="I19" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J19" t="n">
-        <v>136.3013096464118</v>
+        <v>136.3013096464117</v>
       </c>
       <c r="K19" t="n">
-        <v>317.2520330522186</v>
+        <v>317.2520330522185</v>
       </c>
       <c r="L19" t="n">
-        <v>581.6201722411013</v>
+        <v>581.6201722411012</v>
       </c>
       <c r="M19" t="n">
-        <v>866.3334677729765</v>
+        <v>866.3334677729764</v>
       </c>
       <c r="N19" t="n">
         <v>1151.642703220284</v>
@@ -5689,34 +5689,34 @@
         <v>1405.355654344859</v>
       </c>
       <c r="P19" t="n">
-        <v>1610.652122025748</v>
+        <v>1610.652122025749</v>
       </c>
       <c r="Q19" t="n">
-        <v>1694.340370439431</v>
+        <v>1694.340370439432</v>
       </c>
       <c r="R19" t="n">
-        <v>1646.209782045487</v>
+        <v>1646.209782045488</v>
       </c>
       <c r="S19" t="n">
-        <v>1646.209782045487</v>
+        <v>1521.434783224421</v>
       </c>
       <c r="T19" t="n">
-        <v>1503.397743244993</v>
+        <v>1378.622744423926</v>
       </c>
       <c r="U19" t="n">
-        <v>1297.111424495387</v>
+        <v>1172.33642567432</v>
       </c>
       <c r="V19" t="n">
-        <v>1125.293423700821</v>
+        <v>1000.518424879754</v>
       </c>
       <c r="W19" t="n">
-        <v>918.7427410751811</v>
+        <v>793.9677422541135</v>
       </c>
       <c r="X19" t="n">
-        <v>773.6196775884845</v>
+        <v>648.8446787674169</v>
       </c>
       <c r="Y19" t="n">
-        <v>635.6935858562749</v>
+        <v>510.9185870352075</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>1873.625174875709</v>
       </c>
       <c r="C20" t="n">
-        <v>1587.529145346618</v>
+        <v>1587.529145346617</v>
       </c>
       <c r="D20" t="n">
         <v>1312.129934151188</v>
@@ -5738,28 +5738,28 @@
         <v>1009.208168964264</v>
       </c>
       <c r="F20" t="n">
-        <v>681.0887515859773</v>
+        <v>681.0887515859772</v>
       </c>
       <c r="G20" t="n">
-        <v>346.8417191734242</v>
+        <v>346.8417191734241</v>
       </c>
       <c r="H20" t="n">
-        <v>111.2215014471941</v>
+        <v>111.221501447194</v>
       </c>
       <c r="I20" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J20" t="n">
-        <v>259.9016362724442</v>
+        <v>259.9016362724441</v>
       </c>
       <c r="K20" t="n">
-        <v>660.1599236624256</v>
+        <v>660.1599236624254</v>
       </c>
       <c r="L20" t="n">
-        <v>1208.992349970759</v>
+        <v>1208.992349970758</v>
       </c>
       <c r="M20" t="n">
-        <v>1836.280718398997</v>
+        <v>1836.280718398996</v>
       </c>
       <c r="N20" t="n">
         <v>2459.087270892388</v>
@@ -5768,7 +5768,7 @@
         <v>3001.998199866673</v>
       </c>
       <c r="P20" t="n">
-        <v>3427.685734150425</v>
+        <v>3427.685734150424</v>
       </c>
       <c r="Q20" t="n">
         <v>3670.137584443059</v>
@@ -5783,16 +5783,16 @@
         <v>3464.156485622156</v>
       </c>
       <c r="U20" t="n">
-        <v>3293.329210733804</v>
+        <v>3293.329210733803</v>
       </c>
       <c r="V20" t="n">
-        <v>3045.132810801554</v>
+        <v>3045.132810801553</v>
       </c>
       <c r="W20" t="n">
-        <v>2775.230642942761</v>
+        <v>2775.23064294276</v>
       </c>
       <c r="X20" t="n">
-        <v>2484.631372093002</v>
+        <v>2484.631372093001</v>
       </c>
       <c r="Y20" t="n">
         <v>2177.35852752851</v>
@@ -5826,25 +5826,25 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I21" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J21" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="K21" t="n">
-        <v>400.6516813300654</v>
+        <v>400.6516813300653</v>
       </c>
       <c r="L21" t="n">
-        <v>534.9507066953179</v>
+        <v>902.0826485457424</v>
       </c>
       <c r="M21" t="n">
-        <v>1172.07621610554</v>
+        <v>1539.208157955964</v>
       </c>
       <c r="N21" t="n">
-        <v>1460.930214412464</v>
+        <v>1734.354546561491</v>
       </c>
       <c r="O21" t="n">
-        <v>2007.15493593019</v>
+        <v>2280.579268079217</v>
       </c>
       <c r="P21" t="n">
         <v>2428.545363292858</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.0353713469897</v>
+        <v>412.1366096162889</v>
       </c>
       <c r="C22" t="n">
-        <v>426.9656758304034</v>
+        <v>326.0669140997026</v>
       </c>
       <c r="D22" t="n">
-        <v>359.7155238293882</v>
+        <v>326.0669140997026</v>
       </c>
       <c r="E22" t="n">
-        <v>294.6689176583158</v>
+        <v>261.0203079286301</v>
       </c>
       <c r="F22" t="n">
-        <v>230.6454575717261</v>
+        <v>196.9968478420404</v>
       </c>
       <c r="G22" t="n">
-        <v>144.8935547706433</v>
+        <v>111.2449450409577</v>
       </c>
       <c r="H22" t="n">
-        <v>73.40275168886119</v>
+        <v>111.2449450409577</v>
       </c>
       <c r="I22" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J22" t="n">
-        <v>136.3013096464118</v>
+        <v>136.3013096464116</v>
       </c>
       <c r="K22" t="n">
-        <v>317.2520330522185</v>
+        <v>317.2520330522184</v>
       </c>
       <c r="L22" t="n">
         <v>581.6201722411013</v>
@@ -5941,19 +5941,19 @@
         <v>1378.622744423927</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.33642567432</v>
+        <v>1172.336425674321</v>
       </c>
       <c r="V22" t="n">
         <v>1000.518424879754</v>
       </c>
       <c r="W22" t="n">
-        <v>793.967742254114</v>
+        <v>793.9677422541145</v>
       </c>
       <c r="X22" t="n">
-        <v>648.8446787674172</v>
+        <v>648.8446787674177</v>
       </c>
       <c r="Y22" t="n">
-        <v>611.8173487659087</v>
+        <v>510.9185870352079</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5969,31 @@
         <v>1587.529145346618</v>
       </c>
       <c r="D23" t="n">
-        <v>1312.129934151189</v>
+        <v>1312.129934151188</v>
       </c>
       <c r="E23" t="n">
-        <v>1009.208168964264</v>
+        <v>1009.208168964265</v>
       </c>
       <c r="F23" t="n">
-        <v>681.0887515859772</v>
+        <v>681.0887515859779</v>
       </c>
       <c r="G23" t="n">
-        <v>346.8417191734241</v>
+        <v>346.8417191734247</v>
       </c>
       <c r="H23" t="n">
         <v>111.221501447194</v>
       </c>
       <c r="I23" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J23" t="n">
         <v>259.9016362724442</v>
       </c>
       <c r="K23" t="n">
-        <v>660.1599236624256</v>
+        <v>660.1599236624252</v>
       </c>
       <c r="L23" t="n">
-        <v>1208.992349970759</v>
+        <v>1208.992349970758</v>
       </c>
       <c r="M23" t="n">
         <v>1836.280718398996</v>
@@ -6005,7 +6005,7 @@
         <v>3001.998199866673</v>
       </c>
       <c r="P23" t="n">
-        <v>3427.685734150425</v>
+        <v>3427.685734150424</v>
       </c>
       <c r="Q23" t="n">
         <v>3670.137584443059</v>
@@ -6026,10 +6026,10 @@
         <v>3045.132810801554</v>
       </c>
       <c r="W23" t="n">
-        <v>2775.230642942761</v>
+        <v>2775.23064294276</v>
       </c>
       <c r="X23" t="n">
-        <v>2484.631372093002</v>
+        <v>2484.631372093001</v>
       </c>
       <c r="Y23" t="n">
         <v>2177.35852752851</v>
@@ -6063,25 +6063,25 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I24" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J24" t="n">
-        <v>190.7868300185746</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="K24" t="n">
-        <v>256.215175017326</v>
+        <v>138.8310966876125</v>
       </c>
       <c r="L24" t="n">
-        <v>757.646142233003</v>
+        <v>640.2620639032896</v>
       </c>
       <c r="M24" t="n">
-        <v>933.7236385307247</v>
+        <v>1277.387573313511</v>
       </c>
       <c r="N24" t="n">
-        <v>1603.41897773637</v>
+        <v>1472.533961919038</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.643699254097</v>
+        <v>2018.758683436765</v>
       </c>
       <c r="P24" t="n">
         <v>2428.545363292858</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.5445682652073</v>
+        <v>447.9887651759172</v>
       </c>
       <c r="C25" t="n">
-        <v>355.474872748621</v>
+        <v>361.9190696593309</v>
       </c>
       <c r="D25" t="n">
-        <v>288.2247207476059</v>
+        <v>294.6689176583156</v>
       </c>
       <c r="E25" t="n">
-        <v>223.1781145765335</v>
+        <v>294.6689176583156</v>
       </c>
       <c r="F25" t="n">
-        <v>159.1546544899438</v>
+        <v>230.645457571726</v>
       </c>
       <c r="G25" t="n">
-        <v>73.40275168886119</v>
+        <v>144.8935547706433</v>
       </c>
       <c r="H25" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="I25" t="n">
-        <v>73.40275168886119</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J25" t="n">
         <v>136.3013096464118</v>
       </c>
       <c r="K25" t="n">
-        <v>317.2520330522187</v>
+        <v>317.2520330522186</v>
       </c>
       <c r="L25" t="n">
         <v>581.6201722411014</v>
       </c>
       <c r="M25" t="n">
-        <v>866.3334677729765</v>
+        <v>866.3334677729766</v>
       </c>
       <c r="N25" t="n">
         <v>1151.642703220284</v>
@@ -6166,31 +6166,31 @@
         <v>1610.652122025749</v>
       </c>
       <c r="Q25" t="n">
-        <v>1694.340370439432</v>
+        <v>1694.340370439433</v>
       </c>
       <c r="R25" t="n">
-        <v>1646.209782045489</v>
+        <v>1682.061937605116</v>
       </c>
       <c r="S25" t="n">
-        <v>1550.842741873339</v>
+        <v>1557.286938784049</v>
       </c>
       <c r="T25" t="n">
-        <v>1408.030703072845</v>
+        <v>1414.474899983554</v>
       </c>
       <c r="U25" t="n">
-        <v>1201.744384323239</v>
+        <v>1208.188581233948</v>
       </c>
       <c r="V25" t="n">
-        <v>1029.926383528672</v>
+        <v>1036.370580439382</v>
       </c>
       <c r="W25" t="n">
-        <v>823.3757009030325</v>
+        <v>829.8198978137423</v>
       </c>
       <c r="X25" t="n">
-        <v>678.2526374163358</v>
+        <v>684.6968343270456</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.3265456841262</v>
+        <v>546.7707425948362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1920.530332592523</v>
+        <v>1831.670290232118</v>
       </c>
       <c r="C26" t="n">
-        <v>1640.427858012516</v>
+        <v>1551.567815652111</v>
       </c>
       <c r="D26" t="n">
-        <v>1371.022201766171</v>
+        <v>1282.162159405766</v>
       </c>
       <c r="E26" t="n">
-        <v>985.2339491679263</v>
+        <v>985.2339491679265</v>
       </c>
       <c r="F26" t="n">
-        <v>663.108086738724</v>
+        <v>663.1080867387241</v>
       </c>
       <c r="G26" t="n">
         <v>334.8546092752553</v>
@@ -6221,13 +6221,13 @@
         <v>105.2279464981096</v>
       </c>
       <c r="I26" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J26" t="n">
-        <v>259.9016362724435</v>
+        <v>259.9016362724439</v>
       </c>
       <c r="K26" t="n">
-        <v>660.1599236624249</v>
+        <v>660.1599236624252</v>
       </c>
       <c r="L26" t="n">
         <v>1208.992349970758</v>
@@ -6239,37 +6239,37 @@
         <v>2459.087270892388</v>
       </c>
       <c r="O26" t="n">
-        <v>3001.998199866672</v>
+        <v>3001.998199866673</v>
       </c>
       <c r="P26" t="n">
         <v>3427.685734150424</v>
       </c>
       <c r="Q26" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="R26" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="S26" t="n">
-        <v>3602.196083251176</v>
+        <v>3513.336040890772</v>
       </c>
       <c r="T26" t="n">
-        <v>3476.143595520324</v>
+        <v>3387.283553159919</v>
       </c>
       <c r="U26" t="n">
-        <v>3311.309875581056</v>
+        <v>3222.449833220651</v>
       </c>
       <c r="V26" t="n">
-        <v>3069.10703059789</v>
+        <v>2979.203706361626</v>
       </c>
       <c r="W26" t="n">
-        <v>2804.155135812321</v>
+        <v>2715.295093451917</v>
       </c>
       <c r="X26" t="n">
-        <v>2519.549419911647</v>
+        <v>2430.689377551242</v>
       </c>
       <c r="Y26" t="n">
-        <v>2218.27013029624</v>
+        <v>2129.410087935835</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I27" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J27" t="n">
         <v>190.7868300185745</v>
       </c>
       <c r="K27" t="n">
-        <v>256.2151750173259</v>
+        <v>518.0357596597787</v>
       </c>
       <c r="L27" t="n">
-        <v>757.6461422330029</v>
+        <v>1019.466726875456</v>
       </c>
       <c r="M27" t="n">
-        <v>1265.783825806936</v>
+        <v>1195.544223173177</v>
       </c>
       <c r="N27" t="n">
-        <v>1460.930214412464</v>
+        <v>1865.239562378823</v>
       </c>
       <c r="O27" t="n">
-        <v>2007.15493593019</v>
+        <v>2021.540587812587</v>
       </c>
       <c r="P27" t="n">
         <v>2428.545363292858</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.0728698028304</v>
+        <v>513.0728698028298</v>
       </c>
       <c r="C28" t="n">
-        <v>432.9967292353285</v>
+        <v>432.996729235328</v>
       </c>
       <c r="D28" t="n">
-        <v>371.7401321833979</v>
+        <v>371.7401321833973</v>
       </c>
       <c r="E28" t="n">
-        <v>312.6870809614098</v>
+        <v>312.6870809614093</v>
       </c>
       <c r="F28" t="n">
-        <v>254.6571758239046</v>
+        <v>254.657175823904</v>
       </c>
       <c r="G28" t="n">
-        <v>174.8988279719063</v>
+        <v>174.8988279719057</v>
       </c>
       <c r="H28" t="n">
         <v>109.4015798392084</v>
       </c>
       <c r="I28" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J28" t="n">
         <v>142.1755928520094</v>
       </c>
       <c r="K28" t="n">
-        <v>329.0005994634137</v>
+        <v>329.0005994634138</v>
       </c>
       <c r="L28" t="n">
         <v>599.2430218578941</v>
       </c>
       <c r="M28" t="n">
-        <v>889.8306005953671</v>
+        <v>889.8306005953669</v>
       </c>
       <c r="N28" t="n">
         <v>1181.014119248272</v>
@@ -6400,7 +6400,7 @@
         <v>1440.601353578445</v>
       </c>
       <c r="P28" t="n">
-        <v>1651.772104464933</v>
+        <v>1651.772104464932</v>
       </c>
       <c r="Q28" t="n">
         <v>1741.334636084213</v>
@@ -6424,10 +6424,10 @@
         <v>876.9233375934018</v>
       </c>
       <c r="X28" t="n">
-        <v>737.7938290557896</v>
+        <v>737.7938290557895</v>
       </c>
       <c r="Y28" t="n">
-        <v>605.861292272665</v>
+        <v>605.8612922726644</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1587.529145346617</v>
       </c>
       <c r="D29" t="n">
-        <v>1312.129934151188</v>
+        <v>1312.129934151187</v>
       </c>
       <c r="E29" t="n">
         <v>1009.208168964264</v>
       </c>
       <c r="F29" t="n">
-        <v>681.0887515859772</v>
+        <v>681.0887515859771</v>
       </c>
       <c r="G29" t="n">
-        <v>346.8417191734239</v>
+        <v>346.841719173424</v>
       </c>
       <c r="H29" t="n">
-        <v>111.2215014471939</v>
+        <v>111.221501447194</v>
       </c>
       <c r="I29" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J29" t="n">
-        <v>259.9016362724439</v>
+        <v>259.9016362724442</v>
       </c>
       <c r="K29" t="n">
-        <v>660.1599236624251</v>
+        <v>660.1599236624252</v>
       </c>
       <c r="L29" t="n">
         <v>1208.992349970758</v>
@@ -6476,22 +6476,22 @@
         <v>2459.087270892388</v>
       </c>
       <c r="O29" t="n">
-        <v>3001.998199866672</v>
+        <v>3001.998199866673</v>
       </c>
       <c r="P29" t="n">
         <v>3427.685734150424</v>
       </c>
       <c r="Q29" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="R29" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.202528302092</v>
+        <v>3596.202528302093</v>
       </c>
       <c r="T29" t="n">
-        <v>3464.156485622155</v>
+        <v>3464.156485622156</v>
       </c>
       <c r="U29" t="n">
         <v>3293.329210733803</v>
@@ -6500,7 +6500,7 @@
         <v>3045.132810801553</v>
       </c>
       <c r="W29" t="n">
-        <v>2775.230642942759</v>
+        <v>2775.23064294276</v>
       </c>
       <c r="X29" t="n">
         <v>2484.631372093001</v>
@@ -6537,28 +6537,28 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I30" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J30" t="n">
-        <v>190.7868300185745</v>
+        <v>110.5047093941969</v>
       </c>
       <c r="K30" t="n">
-        <v>335.0884813848827</v>
+        <v>175.9330543929482</v>
       </c>
       <c r="L30" t="n">
-        <v>469.3875067501351</v>
+        <v>677.3640216086253</v>
       </c>
       <c r="M30" t="n">
-        <v>1106.513016160357</v>
+        <v>1314.489531018847</v>
       </c>
       <c r="N30" t="n">
-        <v>1776.208355366002</v>
+        <v>1984.184870224492</v>
       </c>
       <c r="O30" t="n">
-        <v>2322.433076883728</v>
+        <v>2530.409591742218</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.545363292858</v>
+        <v>2636.521878151349</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.535935070558</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>483.5369513646393</v>
+        <v>460.2671980102338</v>
       </c>
       <c r="C31" t="n">
-        <v>397.4672558480531</v>
+        <v>374.1975024936476</v>
       </c>
       <c r="D31" t="n">
-        <v>330.2171038470381</v>
+        <v>306.9473504926325</v>
       </c>
       <c r="E31" t="n">
-        <v>265.1704976759657</v>
+        <v>241.90074432156</v>
       </c>
       <c r="F31" t="n">
-        <v>201.1470375893761</v>
+        <v>177.8772842349704</v>
       </c>
       <c r="G31" t="n">
-        <v>115.3951347882928</v>
+        <v>92.12538143388748</v>
       </c>
       <c r="H31" t="n">
-        <v>115.3951347882928</v>
+        <v>92.12538143388748</v>
       </c>
       <c r="I31" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J31" t="n">
         <v>136.3013096464118</v>
       </c>
       <c r="K31" t="n">
-        <v>317.2520330522186</v>
+        <v>317.2520330522187</v>
       </c>
       <c r="L31" t="n">
-        <v>581.6201722411014</v>
+        <v>581.6201722411015</v>
       </c>
       <c r="M31" t="n">
         <v>866.3334677729767</v>
@@ -6649,22 +6649,22 @@
         <v>1569.565371618365</v>
       </c>
       <c r="T31" t="n">
-        <v>1450.023086172276</v>
+        <v>1426.753332817871</v>
       </c>
       <c r="U31" t="n">
-        <v>1243.73676742267</v>
+        <v>1220.467014068265</v>
       </c>
       <c r="V31" t="n">
-        <v>1071.918766628104</v>
+        <v>1048.649013273699</v>
       </c>
       <c r="W31" t="n">
-        <v>865.3680840024642</v>
+        <v>842.098330648059</v>
       </c>
       <c r="X31" t="n">
-        <v>720.2450205157677</v>
+        <v>696.9752671613624</v>
       </c>
       <c r="Y31" t="n">
-        <v>582.3189287835582</v>
+        <v>559.0491754291528</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>73.40275168886116</v>
       </c>
       <c r="J32" t="n">
-        <v>259.9016362724442</v>
+        <v>259.9016362724435</v>
       </c>
       <c r="K32" t="n">
-        <v>660.1599236624254</v>
+        <v>660.1599236624249</v>
       </c>
       <c r="L32" t="n">
         <v>1208.992349970758</v>
@@ -6713,7 +6713,7 @@
         <v>2459.087270892388</v>
       </c>
       <c r="O32" t="n">
-        <v>3001.998199866673</v>
+        <v>3001.998199866672</v>
       </c>
       <c r="P32" t="n">
         <v>3427.685734150424</v>
@@ -6728,22 +6728,22 @@
         <v>3602.196083251176</v>
       </c>
       <c r="T32" t="n">
-        <v>3476.143595520324</v>
+        <v>3475.100313644463</v>
       </c>
       <c r="U32" t="n">
-        <v>3311.309875581056</v>
+        <v>3310.266593705195</v>
       </c>
       <c r="V32" t="n">
-        <v>2980.246988237485</v>
+        <v>3068.06374872203</v>
       </c>
       <c r="W32" t="n">
-        <v>2716.338375327776</v>
+        <v>2804.155135812321</v>
       </c>
       <c r="X32" t="n">
-        <v>2431.732659427101</v>
+        <v>2519.549419911646</v>
       </c>
       <c r="Y32" t="n">
-        <v>2129.410087935834</v>
+        <v>2218.27013029624</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>73.40275168886116</v>
       </c>
       <c r="J33" t="n">
-        <v>73.40275168886116</v>
+        <v>190.7868300185745</v>
       </c>
       <c r="K33" t="n">
-        <v>138.8310966876125</v>
+        <v>429.0045526469574</v>
       </c>
       <c r="L33" t="n">
-        <v>640.2620639032896</v>
+        <v>930.4355198626345</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.387573313511</v>
+        <v>1106.513016160356</v>
       </c>
       <c r="N33" t="n">
-        <v>1472.533961919038</v>
+        <v>1776.208355366001</v>
       </c>
       <c r="O33" t="n">
-        <v>2018.758683436765</v>
+        <v>2322.433076883728</v>
       </c>
       <c r="P33" t="n">
-        <v>2440.149110799433</v>
+        <v>2428.545363292858</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.535935070558</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.0728698028298</v>
+        <v>513.0728698028303</v>
       </c>
       <c r="C34" t="n">
-        <v>432.996729235328</v>
+        <v>432.9967292353285</v>
       </c>
       <c r="D34" t="n">
-        <v>371.7401321833974</v>
+        <v>371.7401321833979</v>
       </c>
       <c r="E34" t="n">
-        <v>312.6870809614094</v>
+        <v>312.6870809614098</v>
       </c>
       <c r="F34" t="n">
-        <v>254.6571758239041</v>
+        <v>254.6571758239046</v>
       </c>
       <c r="G34" t="n">
         <v>174.898827971906</v>
@@ -6856,19 +6856,19 @@
         <v>73.40275168886116</v>
       </c>
       <c r="J34" t="n">
-        <v>142.1755928520096</v>
+        <v>142.1755928520095</v>
       </c>
       <c r="K34" t="n">
-        <v>329.0005994634141</v>
+        <v>329.0005994634139</v>
       </c>
       <c r="L34" t="n">
-        <v>599.2430218578945</v>
+        <v>599.2430218578943</v>
       </c>
       <c r="M34" t="n">
-        <v>889.8306005953674</v>
+        <v>889.8306005953673</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.014119248273</v>
+        <v>1181.014119248272</v>
       </c>
       <c r="O34" t="n">
         <v>1440.601353578446</v>
@@ -6889,19 +6889,19 @@
         <v>1443.597674915961</v>
       </c>
       <c r="U34" t="n">
-        <v>1243.304911115439</v>
+        <v>1243.30491111544</v>
       </c>
       <c r="V34" t="n">
-        <v>1077.480465269957</v>
+        <v>1077.480465269958</v>
       </c>
       <c r="W34" t="n">
-        <v>876.9233375934017</v>
+        <v>876.9233375934022</v>
       </c>
       <c r="X34" t="n">
-        <v>737.7938290557894</v>
+        <v>737.7938290557898</v>
       </c>
       <c r="Y34" t="n">
-        <v>605.8612922726644</v>
+        <v>605.8612922726649</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1829.835528513011</v>
+        <v>1829.83552851301</v>
       </c>
       <c r="C35" t="n">
         <v>1549.733053933004</v>
@@ -6920,55 +6920,55 @@
         <v>1280.327397686658</v>
       </c>
       <c r="E35" t="n">
-        <v>983.3991874488188</v>
+        <v>983.399187448819</v>
       </c>
       <c r="F35" t="n">
-        <v>661.2733250196164</v>
+        <v>661.2733250196165</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0198475561477</v>
+        <v>333.0198475561478</v>
       </c>
       <c r="H35" t="n">
         <v>103.3931847790021</v>
       </c>
       <c r="I35" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J35" t="n">
-        <v>168.1635503170718</v>
+        <v>258.0668745533364</v>
       </c>
       <c r="K35" t="n">
-        <v>568.421837707053</v>
+        <v>658.3251619433177</v>
       </c>
       <c r="L35" t="n">
-        <v>1117.254264015386</v>
+        <v>1207.157588251651</v>
       </c>
       <c r="M35" t="n">
-        <v>1744.542632443623</v>
+        <v>1834.445956679888</v>
       </c>
       <c r="N35" t="n">
-        <v>2367.349184937015</v>
+        <v>2457.25250917328</v>
       </c>
       <c r="O35" t="n">
-        <v>2910.2601139113</v>
+        <v>3000.163438147565</v>
       </c>
       <c r="P35" t="n">
         <v>3335.947648195051</v>
       </c>
       <c r="Q35" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="R35" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="S35" t="n">
-        <v>3510.457997295804</v>
+        <v>3510.457997295803</v>
       </c>
       <c r="T35" t="n">
-        <v>3384.405509564951</v>
+        <v>3384.405509564952</v>
       </c>
       <c r="U35" t="n">
-        <v>3219.571789625683</v>
+        <v>3219.571789625684</v>
       </c>
       <c r="V35" t="n">
         <v>2977.368944642518</v>
@@ -6980,7 +6980,7 @@
         <v>2428.854615832134</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.575326216728</v>
+        <v>2127.575326216727</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.6105808199385</v>
+        <v>985.6105808199383</v>
       </c>
       <c r="C36" t="n">
-        <v>811.1575515388115</v>
+        <v>811.1575515388113</v>
       </c>
       <c r="D36" t="n">
-        <v>662.2231418775602</v>
+        <v>662.22314187756</v>
       </c>
       <c r="E36" t="n">
-        <v>502.9856868721047</v>
+        <v>502.9856868721046</v>
       </c>
       <c r="F36" t="n">
         <v>356.4511288989896</v>
@@ -7011,34 +7011,34 @@
         <v>117.9469827211779</v>
       </c>
       <c r="I36" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J36" t="n">
         <v>188.952068299467</v>
       </c>
       <c r="K36" t="n">
-        <v>333.2537196657756</v>
+        <v>516.2009979406712</v>
       </c>
       <c r="L36" t="n">
-        <v>467.5527450310281</v>
+        <v>1017.631965156348</v>
       </c>
       <c r="M36" t="n">
-        <v>1104.678254441249</v>
+        <v>1654.75747456657</v>
       </c>
       <c r="N36" t="n">
-        <v>1774.373593646895</v>
+        <v>2056.995663635809</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.598315164621</v>
+        <v>2213.296689069573</v>
       </c>
       <c r="P36" t="n">
-        <v>2426.710601573751</v>
+        <v>2634.687116432242</v>
       </c>
       <c r="Q36" t="n">
-        <v>2655.701173351451</v>
+        <v>2655.70117335145</v>
       </c>
       <c r="R36" t="n">
-        <v>2633.734259032608</v>
+        <v>2633.734259032607</v>
       </c>
       <c r="S36" t="n">
         <v>2484.011678192533</v>
@@ -7047,7 +7047,7 @@
         <v>2286.966875251135</v>
       </c>
       <c r="U36" t="n">
-        <v>2058.827181770438</v>
+        <v>2058.827181770437</v>
       </c>
       <c r="V36" t="n">
         <v>1823.675073538695</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.2381080837231</v>
+        <v>511.2381080837223</v>
       </c>
       <c r="C37" t="n">
-        <v>431.1619675162213</v>
+        <v>431.1619675162204</v>
       </c>
       <c r="D37" t="n">
-        <v>369.9053704642906</v>
+        <v>369.9053704642898</v>
       </c>
       <c r="E37" t="n">
-        <v>310.8523192423027</v>
+        <v>310.8523192423017</v>
       </c>
       <c r="F37" t="n">
-        <v>252.8224141047972</v>
+        <v>252.8224141047966</v>
       </c>
       <c r="G37" t="n">
-        <v>173.064066252799</v>
+        <v>173.0640662527983</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5668181201013</v>
+        <v>107.566818120101</v>
       </c>
       <c r="I37" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3408311329021</v>
+        <v>140.3408311329018</v>
       </c>
       <c r="K37" t="n">
-        <v>327.1658377443065</v>
+        <v>327.1658377443063</v>
       </c>
       <c r="L37" t="n">
-        <v>597.4082601387869</v>
+        <v>597.4082601387865</v>
       </c>
       <c r="M37" t="n">
         <v>887.9958388762595</v>
@@ -7111,19 +7111,19 @@
         <v>1438.766591859338</v>
       </c>
       <c r="P37" t="n">
-        <v>1649.937342745825</v>
+        <v>1649.937342745824</v>
       </c>
       <c r="Q37" t="n">
-        <v>1739.499874365106</v>
+        <v>1739.499874365105</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.362840920246</v>
+        <v>1697.362840920245</v>
       </c>
       <c r="S37" t="n">
-        <v>1578.581397048264</v>
+        <v>1578.581397048263</v>
       </c>
       <c r="T37" t="n">
-        <v>1441.762913196854</v>
+        <v>1441.762913196853</v>
       </c>
       <c r="U37" t="n">
         <v>1241.470149396332</v>
@@ -7132,13 +7132,13 @@
         <v>1075.64570355085</v>
       </c>
       <c r="W37" t="n">
-        <v>875.0885758742949</v>
+        <v>875.0885758742943</v>
       </c>
       <c r="X37" t="n">
-        <v>735.9590673366827</v>
+        <v>735.959067336682</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.0265305535577</v>
+        <v>604.0265305535569</v>
       </c>
     </row>
     <row r="38">
@@ -7166,52 +7166,52 @@
         <v>333.0198475561479</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3931847790022</v>
+        <v>103.3931847790021</v>
       </c>
       <c r="I38" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J38" t="n">
-        <v>168.1635503170714</v>
+        <v>258.0668745533364</v>
       </c>
       <c r="K38" t="n">
-        <v>568.4218377070526</v>
+        <v>658.3251619433177</v>
       </c>
       <c r="L38" t="n">
-        <v>1117.254264015386</v>
+        <v>1207.157588251651</v>
       </c>
       <c r="M38" t="n">
-        <v>1744.542632443623</v>
+        <v>1834.445956679888</v>
       </c>
       <c r="N38" t="n">
-        <v>2367.349184937015</v>
+        <v>2457.25250917328</v>
       </c>
       <c r="O38" t="n">
-        <v>2910.2601139113</v>
+        <v>3000.163438147565</v>
       </c>
       <c r="P38" t="n">
         <v>3335.947648195051</v>
       </c>
       <c r="Q38" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="R38" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="S38" t="n">
-        <v>3510.457997295804</v>
+        <v>3510.457997295803</v>
       </c>
       <c r="T38" t="n">
         <v>3384.405509564951</v>
       </c>
       <c r="U38" t="n">
-        <v>3219.571789625683</v>
+        <v>3219.571789625682</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.368944642518</v>
+        <v>2977.368944642517</v>
       </c>
       <c r="W38" t="n">
-        <v>2713.460331732809</v>
+        <v>2713.460331732808</v>
       </c>
       <c r="X38" t="n">
         <v>2428.854615832134</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>985.6105808199385</v>
+        <v>985.6105808199383</v>
       </c>
       <c r="C39" t="n">
-        <v>811.1575515388115</v>
+        <v>811.1575515388113</v>
       </c>
       <c r="D39" t="n">
-        <v>662.2231418775602</v>
+        <v>662.22314187756</v>
       </c>
       <c r="E39" t="n">
-        <v>502.9856868721047</v>
+        <v>502.9856868721046</v>
       </c>
       <c r="F39" t="n">
         <v>356.4511288989896</v>
@@ -7248,22 +7248,22 @@
         <v>117.9469827211779</v>
       </c>
       <c r="I39" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J39" t="n">
-        <v>188.9520682994671</v>
+        <v>188.952068299467</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2009979406713</v>
+        <v>254.3804132982184</v>
       </c>
       <c r="L39" t="n">
-        <v>650.5000233059238</v>
+        <v>626.8235546776073</v>
       </c>
       <c r="M39" t="n">
-        <v>1287.625532716145</v>
+        <v>1263.949064087829</v>
       </c>
       <c r="N39" t="n">
-        <v>1482.771921321673</v>
+        <v>1459.095452693356</v>
       </c>
       <c r="O39" t="n">
         <v>2005.320174211083</v>
@@ -7272,10 +7272,10 @@
         <v>2426.710601573751</v>
       </c>
       <c r="Q39" t="n">
-        <v>2655.701173351451</v>
+        <v>2655.70117335145</v>
       </c>
       <c r="R39" t="n">
-        <v>2633.734259032608</v>
+        <v>2633.734259032607</v>
       </c>
       <c r="S39" t="n">
         <v>2484.011678192533</v>
@@ -7284,7 +7284,7 @@
         <v>2286.966875251135</v>
       </c>
       <c r="U39" t="n">
-        <v>2058.827181770438</v>
+        <v>2058.827181770437</v>
       </c>
       <c r="V39" t="n">
         <v>1823.675073538695</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.2381080837225</v>
+        <v>511.2381080837229</v>
       </c>
       <c r="C40" t="n">
-        <v>431.1619675162206</v>
+        <v>431.1619675162211</v>
       </c>
       <c r="D40" t="n">
-        <v>369.9053704642899</v>
+        <v>369.9053704642904</v>
       </c>
       <c r="E40" t="n">
-        <v>310.8523192423019</v>
+        <v>310.8523192423023</v>
       </c>
       <c r="F40" t="n">
-        <v>252.8224141047966</v>
+        <v>252.822414104797</v>
       </c>
       <c r="G40" t="n">
-        <v>173.0640662527983</v>
+        <v>173.0640662527987</v>
       </c>
       <c r="H40" t="n">
         <v>107.566818120101</v>
       </c>
       <c r="I40" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3408311329021</v>
+        <v>140.340831132902</v>
       </c>
       <c r="K40" t="n">
-        <v>327.1658377443065</v>
+        <v>327.1658377443069</v>
       </c>
       <c r="L40" t="n">
-        <v>597.4082601387868</v>
+        <v>597.4082601387872</v>
       </c>
       <c r="M40" t="n">
-        <v>887.9958388762597</v>
+        <v>887.99583887626</v>
       </c>
       <c r="N40" t="n">
         <v>1179.179357529165</v>
@@ -7351,13 +7351,13 @@
         <v>1649.937342745825</v>
       </c>
       <c r="Q40" t="n">
-        <v>1739.499874365105</v>
+        <v>1739.499874365106</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.362840920246</v>
+        <v>1697.362840920247</v>
       </c>
       <c r="S40" t="n">
-        <v>1578.581397048263</v>
+        <v>1578.581397048264</v>
       </c>
       <c r="T40" t="n">
         <v>1441.762913196854</v>
@@ -7366,16 +7366,16 @@
         <v>1241.470149396332</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.64570355085</v>
+        <v>1075.645703550851</v>
       </c>
       <c r="W40" t="n">
-        <v>875.0885758742945</v>
+        <v>875.088575874295</v>
       </c>
       <c r="X40" t="n">
-        <v>735.9590673366822</v>
+        <v>735.9590673366827</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.0265305535571</v>
+        <v>604.0265305535576</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>1829.83552851301</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.733053933004</v>
+        <v>1549.733053933003</v>
       </c>
       <c r="D41" t="n">
         <v>1280.327397686658</v>
@@ -7400,61 +7400,61 @@
         <v>661.2733250196165</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0198475561479</v>
+        <v>333.0198475561478</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3931847790022</v>
+        <v>103.3931847790021</v>
       </c>
       <c r="I41" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J41" t="n">
         <v>258.0668745533364</v>
       </c>
       <c r="K41" t="n">
-        <v>658.3251619433177</v>
+        <v>568.4218377070517</v>
       </c>
       <c r="L41" t="n">
-        <v>1117.254264015386</v>
+        <v>1117.254264015385</v>
       </c>
       <c r="M41" t="n">
         <v>1744.542632443623</v>
       </c>
       <c r="N41" t="n">
-        <v>2367.349184937015</v>
+        <v>2367.349184937014</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.2601139113</v>
+        <v>2910.260113911299</v>
       </c>
       <c r="P41" t="n">
         <v>3335.947648195051</v>
       </c>
       <c r="Q41" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="R41" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="S41" t="n">
-        <v>3510.457997295804</v>
+        <v>3510.457997295803</v>
       </c>
       <c r="T41" t="n">
         <v>3384.405509564951</v>
       </c>
       <c r="U41" t="n">
-        <v>3219.571789625684</v>
+        <v>3219.571789625682</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.368944642518</v>
+        <v>2977.368944642517</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.460331732809</v>
+        <v>2713.460331732808</v>
       </c>
       <c r="X41" t="n">
-        <v>2428.854615832134</v>
+        <v>2428.854615832133</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.575326216727</v>
+        <v>2127.575326216726</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>985.6105808199385</v>
+        <v>985.6105808199383</v>
       </c>
       <c r="C42" t="n">
-        <v>811.1575515388115</v>
+        <v>811.1575515388113</v>
       </c>
       <c r="D42" t="n">
-        <v>662.2231418775602</v>
+        <v>662.22314187756</v>
       </c>
       <c r="E42" t="n">
-        <v>502.9856868721047</v>
+        <v>502.9856868721046</v>
       </c>
       <c r="F42" t="n">
         <v>356.4511288989896</v>
@@ -7485,34 +7485,34 @@
         <v>117.9469827211779</v>
       </c>
       <c r="I42" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J42" t="n">
-        <v>188.9520682994671</v>
+        <v>188.952068299467</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2009979406713</v>
+        <v>516.2009979406712</v>
       </c>
       <c r="L42" t="n">
         <v>1017.631965156348</v>
       </c>
       <c r="M42" t="n">
-        <v>1654.75747456657</v>
+        <v>1579.227205041366</v>
       </c>
       <c r="N42" t="n">
-        <v>1982.350108505385</v>
+        <v>1774.373593646894</v>
       </c>
       <c r="O42" t="n">
-        <v>2528.574830023111</v>
+        <v>2320.59831516462</v>
       </c>
       <c r="P42" t="n">
-        <v>2634.687116432242</v>
+        <v>2426.710601573751</v>
       </c>
       <c r="Q42" t="n">
-        <v>2655.701173351451</v>
+        <v>2655.70117335145</v>
       </c>
       <c r="R42" t="n">
-        <v>2633.734259032608</v>
+        <v>2633.734259032607</v>
       </c>
       <c r="S42" t="n">
         <v>2484.011678192533</v>
@@ -7521,7 +7521,7 @@
         <v>2286.966875251135</v>
       </c>
       <c r="U42" t="n">
-        <v>2058.827181770438</v>
+        <v>2058.827181770437</v>
       </c>
       <c r="V42" t="n">
         <v>1823.675073538695</v>
@@ -7564,34 +7564,34 @@
         <v>107.566818120101</v>
       </c>
       <c r="I43" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J43" t="n">
         <v>140.3408311329019</v>
       </c>
       <c r="K43" t="n">
-        <v>327.1658377443064</v>
+        <v>327.1658377443063</v>
       </c>
       <c r="L43" t="n">
         <v>597.4082601387867</v>
       </c>
       <c r="M43" t="n">
-        <v>887.9958388762595</v>
+        <v>887.9958388762597</v>
       </c>
       <c r="N43" t="n">
         <v>1179.179357529165</v>
       </c>
       <c r="O43" t="n">
-        <v>1438.766591859339</v>
+        <v>1438.766591859338</v>
       </c>
       <c r="P43" t="n">
-        <v>1649.937342745826</v>
+        <v>1649.937342745825</v>
       </c>
       <c r="Q43" t="n">
-        <v>1739.499874365106</v>
+        <v>1739.499874365105</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.362840920247</v>
+        <v>1697.362840920246</v>
       </c>
       <c r="S43" t="n">
         <v>1578.581397048264</v>
@@ -7600,16 +7600,16 @@
         <v>1441.762913196854</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.470149396332</v>
+        <v>1241.470149396333</v>
       </c>
       <c r="V43" t="n">
         <v>1075.645703550851</v>
       </c>
       <c r="W43" t="n">
-        <v>875.088575874295</v>
+        <v>875.0885758742951</v>
       </c>
       <c r="X43" t="n">
-        <v>735.9590673366827</v>
+        <v>735.9590673366829</v>
       </c>
       <c r="Y43" t="n">
         <v>604.0265305535576</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1829.835528513011</v>
+        <v>1829.83552851301</v>
       </c>
       <c r="C44" t="n">
-        <v>1549.733053933004</v>
+        <v>1549.733053933003</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.327397686659</v>
+        <v>1280.327397686658</v>
       </c>
       <c r="E44" t="n">
-        <v>983.3991874488195</v>
+        <v>983.3991874488189</v>
       </c>
       <c r="F44" t="n">
-        <v>661.273325019617</v>
+        <v>661.2733250196165</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0198475561483</v>
+        <v>333.0198475561479</v>
       </c>
       <c r="H44" t="n">
         <v>103.3931847790021</v>
@@ -7646,7 +7646,7 @@
         <v>71.56798996975373</v>
       </c>
       <c r="J44" t="n">
-        <v>258.0668745533364</v>
+        <v>168.1635503170714</v>
       </c>
       <c r="K44" t="n">
         <v>568.4218377070526</v>
@@ -7673,7 +7673,7 @@
         <v>3578.399498487686</v>
       </c>
       <c r="S44" t="n">
-        <v>3510.457997295804</v>
+        <v>3510.457997295803</v>
       </c>
       <c r="T44" t="n">
         <v>3384.405509564951</v>
@@ -7688,7 +7688,7 @@
         <v>2713.460331732808</v>
       </c>
       <c r="X44" t="n">
-        <v>2428.854615832134</v>
+        <v>2428.854615832133</v>
       </c>
       <c r="Y44" t="n">
         <v>2127.575326216727</v>
@@ -7728,19 +7728,19 @@
         <v>188.9520682994671</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2009979406713</v>
+        <v>254.3804132982185</v>
       </c>
       <c r="L45" t="n">
-        <v>650.5000233059238</v>
+        <v>755.8113805138955</v>
       </c>
       <c r="M45" t="n">
-        <v>1287.625532716145</v>
+        <v>1392.936889924117</v>
       </c>
       <c r="N45" t="n">
-        <v>1957.320871921791</v>
+        <v>1849.019148777319</v>
       </c>
       <c r="O45" t="n">
-        <v>2113.621897355555</v>
+        <v>2005.320174211083</v>
       </c>
       <c r="P45" t="n">
         <v>2426.710601573751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.2381080837228</v>
+        <v>511.2381080837225</v>
       </c>
       <c r="C46" t="n">
-        <v>431.161967516221</v>
+        <v>431.1619675162207</v>
       </c>
       <c r="D46" t="n">
-        <v>369.9053704642904</v>
+        <v>369.9053704642901</v>
       </c>
       <c r="E46" t="n">
-        <v>310.8523192423024</v>
+        <v>310.852319242302</v>
       </c>
       <c r="F46" t="n">
-        <v>252.8224141047971</v>
+        <v>252.8224141047968</v>
       </c>
       <c r="G46" t="n">
-        <v>173.0640662527989</v>
+        <v>173.0640662527985</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5668181201009</v>
+        <v>107.566818120101</v>
       </c>
       <c r="I46" t="n">
         <v>71.56798996975373</v>
@@ -7822,10 +7822,10 @@
         <v>1438.766591859338</v>
       </c>
       <c r="P46" t="n">
-        <v>1649.937342745826</v>
+        <v>1649.937342745825</v>
       </c>
       <c r="Q46" t="n">
-        <v>1739.499874365106</v>
+        <v>1739.499874365105</v>
       </c>
       <c r="R46" t="n">
         <v>1697.362840920246</v>
@@ -7843,13 +7843,13 @@
         <v>1075.64570355085</v>
       </c>
       <c r="W46" t="n">
-        <v>875.0885758742949</v>
+        <v>875.0885758742946</v>
       </c>
       <c r="X46" t="n">
-        <v>735.9590673366827</v>
+        <v>735.9590673366824</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.0265305535574</v>
+        <v>604.0265305535571</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,7 +8544,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.521259249789239</v>
+        <v>7.521259249789281</v>
       </c>
       <c r="K12" t="n">
-        <v>198.3563306584998</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>104.0388145932489</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.521259249789239</v>
+        <v>7.521259249789267</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>382.141362199381</v>
+        <v>94.65415121353183</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.521259249789267</v>
+        <v>7.521259249789281</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>198.2397825224946</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>198.3563306585002</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.521259249789267</v>
+        <v>7.521259249789281</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>94.65415121353183</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>42.27657455001054</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>7.521259249789281</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>174.5347248784153</v>
+        <v>306.7418115625889</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119845</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>335.4143305820319</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>303.9318071425664</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>44.99798420467385</v>
       </c>
       <c r="K30" t="n">
-        <v>79.67000643187563</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>7.521259249789281</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>174.5347248784157</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>198.3563306585006</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>78.28517654958428</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>230.9872695489922</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>79.67000643187603</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>209.1836368320324</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>78.28517654958384</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>230.9872695489922</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>240.5496121354913</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>369.9466943996427</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>233.3339739486739</v>
       </c>
       <c r="L41" t="n">
-        <v>326.8497759279606</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>389.4118622093904</v>
       </c>
       <c r="N42" t="n">
-        <v>133.7840861952401</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>78.28517654958384</v>
       </c>
       <c r="K44" t="n">
-        <v>233.3339739486748</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>263.5715861087621</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>209.0670886960264</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>348.7458981693647</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.2025607483351</v>
+        <v>296.7443518408741</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>332.7139751157702</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>353.2041070768262</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,28 +23416,28 @@
         <v>163.3049865802945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>150.719827496985</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>132.0884794165696</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9069690449263</v>
+        <v>129.9069690449264</v>
       </c>
       <c r="F13" t="n">
         <v>128.8940544212884</v>
       </c>
       <c r="G13" t="n">
-        <v>150.4052127086365</v>
+        <v>150.4052127086366</v>
       </c>
       <c r="H13" t="n">
-        <v>136.2867239865289</v>
+        <v>136.286723986529</v>
       </c>
       <c r="I13" t="n">
         <v>107.083288204002</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.976932008745834</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>113.160111445569</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.0380777684211</v>
       </c>
       <c r="T13" t="n">
-        <v>206.8947473480539</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>269.7342844976746</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>235.6106497221852</v>
+        <v>91.28481994645247</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>209.1826617873944</v>
       </c>
       <c r="Y13" t="n">
-        <v>175.2112283022224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>145.4653846442745</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>384.4154327404751</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>292.8412250849389</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>305.2916454688986</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>295.5252724857296</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>363.7773256548173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>157.371367180701</v>
       </c>
       <c r="C16" t="n">
-        <v>144.7862080973915</v>
+        <v>144.7862080973916</v>
       </c>
       <c r="D16" t="n">
-        <v>126.154860016976</v>
+        <v>126.1548600169761</v>
       </c>
       <c r="E16" t="n">
-        <v>123.9733496453328</v>
+        <v>123.9733496453329</v>
       </c>
       <c r="F16" t="n">
-        <v>122.9604350216949</v>
+        <v>122.960435021695</v>
       </c>
       <c r="G16" t="n">
-        <v>144.471593309043</v>
+        <v>144.4715933090431</v>
       </c>
       <c r="H16" t="n">
-        <v>53.64845970637384</v>
+        <v>130.3531045869354</v>
       </c>
       <c r="I16" t="n">
         <v>101.1496688044085</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>107.2264920459754</v>
       </c>
       <c r="S16" t="n">
-        <v>183.1044583688275</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>200.9611279484604</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>229.6770303225917</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>203.2490423878008</v>
+        <v>173.7064614559608</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>29.11387906243005</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>17.9349845489739</v>
+        <v>70.77589505096434</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.57245926843738</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.5272488328564</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.57765048100494</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.77589505096434</v>
       </c>
       <c r="I22" t="n">
-        <v>41.57245926843738</v>
+        <v>4.108687849862008</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.88977411339393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>64.3961401093617</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>70.77589505096429</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.57245926843734</v>
+        <v>41.57245926843733</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>35.49363400403041</v>
       </c>
       <c r="S25" t="n">
-        <v>29.11387906242862</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>70.77589505096422</v>
+        <v>70.77589505096427</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>23.03705582086128</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.64928251000424</v>
+        <v>47.64928251000428</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>23.03705582086118</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982124</v>
@@ -26320,7 +26320,7 @@
         <v>61578.13273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>52645.640147973</v>
+        <v>52645.64014797299</v>
       </c>
       <c r="F2" t="n">
         <v>53431.69859899834</v>
@@ -26329,28 +26329,28 @@
         <v>61323.500719734</v>
       </c>
       <c r="H2" t="n">
-        <v>61323.50071973401</v>
+        <v>61323.500719734</v>
       </c>
       <c r="I2" t="n">
+        <v>61323.50071973398</v>
+      </c>
+      <c r="J2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="K2" t="n">
         <v>61323.50071973399</v>
       </c>
-      <c r="J2" t="n">
-        <v>61578.13273982123</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61323.500719734</v>
-      </c>
       <c r="L2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.1327398212</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982122</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982119</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>686923.8703389001</v>
+        <v>686923.8703388999</v>
       </c>
       <c r="F3" t="n">
-        <v>4746.895519674797</v>
+        <v>4746.895519674808</v>
       </c>
       <c r="G3" t="n">
-        <v>47661.76762877687</v>
+        <v>47661.76762877691</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.021374298698698e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>81028.43300009529</v>
+        <v>81028.43300009531</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52408.66314845168</v>
+        <v>52408.66314845176</v>
       </c>
       <c r="M3" t="n">
-        <v>162876.1423098132</v>
+        <v>162876.1423098131</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>17968.49040098913</v>
+        <v>17968.49040098908</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,16 +26418,16 @@
         <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
         <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>49641.05839908381</v>
+        <v>49641.05839908377</v>
       </c>
       <c r="F4" t="n">
-        <v>55637.18094018445</v>
+        <v>55637.18094018441</v>
       </c>
       <c r="G4" t="n">
         <v>115842.6752700563</v>
@@ -26436,7 +26436,7 @@
         <v>115842.6752700563</v>
       </c>
       <c r="I4" t="n">
-        <v>115842.6752700563</v>
+        <v>115842.6752700564</v>
       </c>
       <c r="J4" t="n">
         <v>117795.1317575741</v>
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>69975.10274016716</v>
+        <v>69975.10274016715</v>
       </c>
       <c r="F5" t="n">
-        <v>70473.93618947158</v>
+        <v>70473.93618947157</v>
       </c>
       <c r="G5" t="n">
         <v>75482.53261795113</v>
@@ -26488,7 +26488,7 @@
         <v>75482.53261795113</v>
       </c>
       <c r="I5" t="n">
-        <v>75482.53261795115</v>
+        <v>75482.53261795113</v>
       </c>
       <c r="J5" t="n">
         <v>75981.36606725556</v>
@@ -26522,34 +26522,34 @@
         <v>-380067.9419742053</v>
       </c>
       <c r="C6" t="n">
-        <v>-299298.5104426576</v>
+        <v>-299298.5104426575</v>
       </c>
       <c r="D6" t="n">
         <v>-299298.5104426576</v>
       </c>
       <c r="E6" t="n">
-        <v>-753894.3913301781</v>
+        <v>-754192.1410832395</v>
       </c>
       <c r="F6" t="n">
-        <v>-77426.3140503325</v>
+        <v>-77697.86185502654</v>
       </c>
       <c r="G6" t="n">
-        <v>-177663.4747970503</v>
+        <v>-177671.9625310532</v>
       </c>
       <c r="H6" t="n">
-        <v>-130001.7071682734</v>
+        <v>-130010.1949022764</v>
       </c>
       <c r="I6" t="n">
-        <v>-130001.7071682735</v>
+        <v>-130010.1949022764</v>
       </c>
       <c r="J6" t="n">
         <v>-213226.7980851037</v>
       </c>
       <c r="K6" t="n">
-        <v>-130001.7071682735</v>
+        <v>-130010.1949022764</v>
       </c>
       <c r="L6" t="n">
-        <v>-184607.0282334601</v>
+        <v>-184607.0282334602</v>
       </c>
       <c r="M6" t="n">
         <v>-296990.1237742287</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="F2" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="G2" t="n">
         <v>82.03782253720742</v>
@@ -26704,28 +26704,28 @@
         <v>82.03782253720742</v>
       </c>
       <c r="I2" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="J2" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="K2" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="L2" t="n">
         <v>87.97144193680104</v>
       </c>
       <c r="M2" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="N2" t="n">
         <v>87.971441936801</v>
       </c>
       <c r="O2" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="P2" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
     </row>
     <row r="3">
@@ -26744,31 +26744,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.1377812631265</v>
+        <v>587.1377812631263</v>
       </c>
       <c r="F3" t="n">
-        <v>587.1377812631265</v>
+        <v>587.1377812631264</v>
       </c>
       <c r="G3" t="n">
-        <v>587.1377812631264</v>
+        <v>587.1377812631263</v>
       </c>
       <c r="H3" t="n">
-        <v>587.1377812631264</v>
+        <v>587.1377812631263</v>
       </c>
       <c r="I3" t="n">
-        <v>587.1377812631264</v>
+        <v>587.1377812631263</v>
       </c>
       <c r="J3" t="n">
         <v>587.1377812631263</v>
       </c>
       <c r="K3" t="n">
-        <v>587.1377812631262</v>
+        <v>587.1377812631263</v>
       </c>
       <c r="L3" t="n">
         <v>587.1377812631263</v>
       </c>
       <c r="M3" t="n">
-        <v>587.1377812631262</v>
+        <v>587.1377812631263</v>
       </c>
       <c r="N3" t="n">
         <v>587.1377812631263</v>
@@ -26796,37 +26796,37 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>917.5343961107648</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="F4" t="n">
-        <v>917.5343961107648</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="G4" t="n">
-        <v>917.5343961107648</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="H4" t="n">
-        <v>917.5343961107648</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="I4" t="n">
-        <v>917.5343961107648</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="J4" t="n">
-        <v>917.5343961107645</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="K4" t="n">
-        <v>917.5343961107645</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="L4" t="n">
         <v>917.5343961107645</v>
       </c>
       <c r="M4" t="n">
-        <v>894.5998746219215</v>
+        <v>894.5998746219212</v>
       </c>
       <c r="N4" t="n">
-        <v>894.5998746219215</v>
+        <v>894.5998746219212</v>
       </c>
       <c r="O4" t="n">
-        <v>894.5998746219215</v>
+        <v>894.5998746219212</v>
       </c>
       <c r="P4" t="n">
         <v>894.5998746219215</v>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="F2" t="n">
-        <v>5.933619399593496</v>
+        <v>5.93361939959351</v>
       </c>
       <c r="G2" t="n">
-        <v>59.57720953597109</v>
+        <v>59.57720953597114</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>22.46061300123641</v>
+        <v>22.46061300123634</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65.5108289355646</v>
+        <v>65.5108289355647</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>22.46061300123641</v>
+        <v>22.46061300123635</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.1377812631265</v>
+        <v>587.1377812631263</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>676.5201072331057</v>
+        <v>676.5201072331056</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776588</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.5855857442626</v>
+        <v>653.5855857442623</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="K2" t="n">
-        <v>5.933619399593496</v>
+        <v>5.93361939959351</v>
       </c>
       <c r="L2" t="n">
-        <v>59.57720953597109</v>
+        <v>59.57720953597114</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.776717873373372e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>22.46061300123641</v>
+        <v>22.46061300123634</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>676.5201072331057</v>
+        <v>676.5201072331056</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.8635518692769</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>174.288448637476</v>
-      </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,13 +27430,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.8418702428449</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,13 +27473,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>79.02430463318217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>160.0364540882031</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27582,13 +27582,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>294.5471194344777</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27661,16 +27661,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.93631300610582</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>80.92306267926205</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>183.9974640793538</v>
       </c>
     </row>
     <row r="7">
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,31 +27850,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>145.9873292814467</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.3217607767384</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27989,13 +27989,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>147.2539679522758</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28065,10 +28065,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="C11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="D11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="E11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="F11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="G11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="H11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="I11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.600600746094898</v>
+        <v>1.600600746094955</v>
       </c>
       <c r="S11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="T11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="U11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="V11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="W11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="X11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="C13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="D13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="E13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="F13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="G13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="H13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="I13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="J13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="K13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="L13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="M13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="O13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="P13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="R13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="S13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="T13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="U13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="V13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="W13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="X13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.52699360164284</v>
+        <v>16.5269936016428</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="C14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="D14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="E14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="F14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="G14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="H14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="I14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.600600746094898</v>
+        <v>1.600600746094926</v>
       </c>
       <c r="S14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="T14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="U14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="V14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="W14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="X14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="C16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="D16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="E16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="F16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="G16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="H16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="I16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="J16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="K16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="L16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="M16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="N16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="O16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="P16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="R16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="S16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="T16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="U16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="V16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="W16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="X16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.46061300123633</v>
+        <v>22.46061300123629</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.600600746094926</v>
+        <v>1.600600746094955</v>
       </c>
       <c r="S17" t="n">
         <v>82.03782253720742</v>
@@ -28846,10 +28846,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.600600746094926</v>
+        <v>1.600600746094955</v>
       </c>
       <c r="S20" t="n">
-        <v>82.03782253720742</v>
+        <v>82.03782253720807</v>
       </c>
       <c r="T20" t="n">
         <v>82.03782253720742</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="C23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="D23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="E23" t="n">
-        <v>82.03782253720652</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="F23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="G23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="H23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="I23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.600600746094926</v>
+        <v>1.600600746094955</v>
       </c>
       <c r="S23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="T23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="U23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="V23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="W23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="X23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="C25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="D25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="E25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="F25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="G25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="H25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="I25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="J25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="K25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="L25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="M25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="N25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="O25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="P25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="R25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="S25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="T25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="U25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="V25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="W25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="X25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.03782253720746</v>
+        <v>82.03782253720748</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="C26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="D26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="F26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="G26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="H26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="I26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.600600746094955</v>
       </c>
       <c r="S26" t="n">
-        <v>87.97144193680103</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="U26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="V26" t="n">
-        <v>87.97144193680103</v>
+        <v>86.93859287970014</v>
       </c>
       <c r="W26" t="n">
-        <v>86.93859287969968</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="C28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="D28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="E28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="F28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="G28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="H28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="I28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="J28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="K28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="L28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="M28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="N28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="O28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="P28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="R28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="S28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="T28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="U28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="V28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="W28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="C29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="D29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="E29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="F29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="G29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="H29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="I29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.600600746094983</v>
+        <v>1.600600746094955</v>
       </c>
       <c r="S29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="T29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="U29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="V29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="W29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="X29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="C31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="D31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="E31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="F31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="G31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="H31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="I31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="J31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="K31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="L31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="M31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="N31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="O31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="P31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="R31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="S31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="T31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="U31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="V31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="W31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="X31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.03782253720752</v>
+        <v>82.03782253720748</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.97144193680104</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>87.97144193680104</v>
@@ -29800,13 +29800,13 @@
         <v>87.97144193680104</v>
       </c>
       <c r="T32" t="n">
-        <v>87.97144193680104</v>
+        <v>86.9385928796992</v>
       </c>
       <c r="U32" t="n">
         <v>87.97144193680104</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="W32" t="n">
         <v>87.97144193680104</v>
@@ -29815,7 +29815,7 @@
         <v>87.97144193680104</v>
       </c>
       <c r="Y32" t="n">
-        <v>86.9385928796994</v>
+        <v>87.97144193680104</v>
       </c>
     </row>
     <row r="33">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="C35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="D35" t="n">
-        <v>87.97144193680009</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="E35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="F35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="G35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="H35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="I35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.600600746094983</v>
+        <v>1.600600746094955</v>
       </c>
       <c r="S35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="T35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680238</v>
       </c>
       <c r="U35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="V35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="W35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="C37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="D37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="E37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="F37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="G37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="H37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="I37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="J37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="K37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="L37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="M37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="N37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="O37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="P37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="R37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="S37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="T37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="U37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="V37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="W37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680101</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>87.971441936801</v>
       </c>
       <c r="X38" t="n">
-        <v>87.97144193680123</v>
+        <v>87.97144193680214</v>
       </c>
       <c r="Y38" t="n">
         <v>87.971441936801</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="C41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="D41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680168</v>
       </c>
       <c r="E41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="F41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="G41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="H41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="I41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.600600746094955</v>
       </c>
       <c r="S41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="T41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="U41" t="n">
-        <v>87.97144193680154</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="V41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="W41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="C43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="D43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="E43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="F43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="G43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="H43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="I43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="J43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="K43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="L43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="M43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="N43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="O43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="P43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="R43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="S43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="T43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="U43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="V43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="W43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.971441936801</v>
+        <v>87.97144193680101</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="C44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="D44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="E44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="F44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="G44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="H44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="I44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>1.600600746094955</v>
       </c>
       <c r="S44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="T44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="U44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="V44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="W44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="X44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="C46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="D46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="E46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="F46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="G46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="H46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="I46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="J46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="K46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="L46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="M46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="N46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="O46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="P46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="R46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="S46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="T46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="U46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="V46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="W46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="X46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.360352889500004</v>
+        <v>2.360352889500003</v>
       </c>
       <c r="H11" t="n">
         <v>24.17296402959192</v>
       </c>
       <c r="I11" t="n">
-        <v>90.99750477244901</v>
+        <v>90.99750477244896</v>
       </c>
       <c r="J11" t="n">
-        <v>200.3320010552012</v>
+        <v>200.3320010552011</v>
       </c>
       <c r="K11" t="n">
-        <v>300.2457388677364</v>
+        <v>300.2457388677363</v>
       </c>
       <c r="L11" t="n">
-        <v>372.4813886097722</v>
+        <v>372.4813886097721</v>
       </c>
       <c r="M11" t="n">
-        <v>414.4573143084179</v>
+        <v>414.4573143084178</v>
       </c>
       <c r="N11" t="n">
-        <v>421.1636669557099</v>
+        <v>421.1636669557097</v>
       </c>
       <c r="O11" t="n">
-        <v>397.6929079107442</v>
+        <v>397.692907910744</v>
       </c>
       <c r="P11" t="n">
-        <v>339.4216959512128</v>
+        <v>339.4216959512126</v>
       </c>
       <c r="Q11" t="n">
-        <v>254.8915580959938</v>
+        <v>254.8915580959937</v>
       </c>
       <c r="R11" t="n">
-        <v>148.2685171950548</v>
+        <v>148.2685171950547</v>
       </c>
       <c r="S11" t="n">
-        <v>53.7865414694814</v>
+        <v>53.78654146948138</v>
       </c>
       <c r="T11" t="n">
         <v>10.33244477378627</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1888282311600003</v>
+        <v>0.1888282311600002</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>12.19695655039061</v>
       </c>
       <c r="I12" t="n">
-        <v>43.48143002750513</v>
+        <v>43.48143002750511</v>
       </c>
       <c r="J12" t="n">
-        <v>119.3163674168775</v>
+        <v>119.3163674168774</v>
       </c>
       <c r="K12" t="n">
-        <v>203.9306763468352</v>
+        <v>203.9306763468351</v>
       </c>
       <c r="L12" t="n">
-        <v>274.209960956897</v>
+        <v>274.2099609568969</v>
       </c>
       <c r="M12" t="n">
-        <v>319.9900907884039</v>
+        <v>319.9900907884038</v>
       </c>
       <c r="N12" t="n">
-        <v>328.459276331341</v>
+        <v>328.4592763313408</v>
       </c>
       <c r="O12" t="n">
-        <v>300.4760681149134</v>
+        <v>300.4760681149133</v>
       </c>
       <c r="P12" t="n">
-        <v>241.1585351003208</v>
+        <v>241.1585351003207</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.2080942064343</v>
+        <v>161.2080942064342</v>
       </c>
       <c r="R12" t="n">
-        <v>78.41058897698889</v>
+        <v>78.41058897698886</v>
       </c>
       <c r="S12" t="n">
-        <v>23.45781607216358</v>
+        <v>23.45781607216357</v>
       </c>
       <c r="T12" t="n">
-        <v>5.090373782837859</v>
+        <v>5.090373782837857</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08308553508440474</v>
+        <v>0.08308553508440469</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.058773048179408</v>
       </c>
       <c r="H13" t="n">
-        <v>9.413454919267837</v>
+        <v>9.413454919267833</v>
       </c>
       <c r="I13" t="n">
-        <v>31.84019312161349</v>
+        <v>31.84019312161348</v>
       </c>
       <c r="J13" t="n">
-        <v>74.85525450628417</v>
+        <v>74.85525450628414</v>
       </c>
       <c r="K13" t="n">
         <v>123.0101777793894</v>
@@ -31926,31 +31926,31 @@
         <v>157.4106766356913</v>
       </c>
       <c r="M13" t="n">
-        <v>165.9674879068867</v>
+        <v>165.9674879068866</v>
       </c>
       <c r="N13" t="n">
-        <v>162.0211520000363</v>
+        <v>162.0211520000362</v>
       </c>
       <c r="O13" t="n">
-        <v>149.652757755395</v>
+        <v>149.6527577553949</v>
       </c>
       <c r="P13" t="n">
         <v>128.0537875725349</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.6578049707321</v>
+        <v>88.65780497073206</v>
       </c>
       <c r="R13" t="n">
-        <v>47.60628632995775</v>
+        <v>47.60628632995773</v>
       </c>
       <c r="S13" t="n">
-        <v>18.45152666690841</v>
+        <v>18.4515266669084</v>
       </c>
       <c r="T13" t="n">
-        <v>4.523848478584743</v>
+        <v>4.523848478584742</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05775125717342234</v>
+        <v>0.05775125717342232</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,37 +31993,37 @@
         <v>24.17296402959192</v>
       </c>
       <c r="I14" t="n">
-        <v>90.99750477244901</v>
+        <v>90.99750477244898</v>
       </c>
       <c r="J14" t="n">
-        <v>200.3320010552012</v>
+        <v>200.3320010552011</v>
       </c>
       <c r="K14" t="n">
-        <v>300.2457388677364</v>
+        <v>300.2457388677363</v>
       </c>
       <c r="L14" t="n">
         <v>372.4813886097722</v>
       </c>
       <c r="M14" t="n">
-        <v>414.4573143084179</v>
+        <v>414.4573143084178</v>
       </c>
       <c r="N14" t="n">
-        <v>421.1636669557099</v>
+        <v>421.1636669557097</v>
       </c>
       <c r="O14" t="n">
-        <v>397.6929079107442</v>
+        <v>397.6929079107441</v>
       </c>
       <c r="P14" t="n">
-        <v>339.4216959512128</v>
+        <v>339.4216959512127</v>
       </c>
       <c r="Q14" t="n">
-        <v>254.8915580959938</v>
+        <v>254.8915580959937</v>
       </c>
       <c r="R14" t="n">
         <v>148.2685171950548</v>
       </c>
       <c r="S14" t="n">
-        <v>53.7865414694814</v>
+        <v>53.78654146948139</v>
       </c>
       <c r="T14" t="n">
         <v>10.33244477378627</v>
@@ -32072,25 +32072,25 @@
         <v>12.19695655039061</v>
       </c>
       <c r="I15" t="n">
-        <v>43.48143002750513</v>
+        <v>43.48143002750512</v>
       </c>
       <c r="J15" t="n">
-        <v>119.3163674168775</v>
+        <v>119.3163674168774</v>
       </c>
       <c r="K15" t="n">
         <v>203.9306763468352</v>
       </c>
       <c r="L15" t="n">
-        <v>274.209960956897</v>
+        <v>274.2099609568969</v>
       </c>
       <c r="M15" t="n">
-        <v>319.9900907884039</v>
+        <v>319.9900907884038</v>
       </c>
       <c r="N15" t="n">
-        <v>328.459276331341</v>
+        <v>328.4592763313409</v>
       </c>
       <c r="O15" t="n">
-        <v>300.4760681149134</v>
+        <v>300.4760681149133</v>
       </c>
       <c r="P15" t="n">
         <v>241.1585351003208</v>
@@ -32099,16 +32099,16 @@
         <v>161.2080942064343</v>
       </c>
       <c r="R15" t="n">
-        <v>78.41058897698889</v>
+        <v>78.41058897698888</v>
       </c>
       <c r="S15" t="n">
-        <v>23.45781607216358</v>
+        <v>23.45781607216357</v>
       </c>
       <c r="T15" t="n">
-        <v>5.090373782837859</v>
+        <v>5.090373782837858</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08308553508440474</v>
+        <v>0.08308553508440471</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.058773048179408</v>
       </c>
       <c r="H16" t="n">
-        <v>9.413454919267837</v>
+        <v>9.413454919267835</v>
       </c>
       <c r="I16" t="n">
-        <v>31.84019312161349</v>
+        <v>31.84019312161348</v>
       </c>
       <c r="J16" t="n">
-        <v>74.85525450628417</v>
+        <v>74.85525450628415</v>
       </c>
       <c r="K16" t="n">
         <v>123.0101777793894</v>
@@ -32163,22 +32163,22 @@
         <v>157.4106766356913</v>
       </c>
       <c r="M16" t="n">
-        <v>165.9674879068867</v>
+        <v>165.9674879068866</v>
       </c>
       <c r="N16" t="n">
         <v>162.0211520000363</v>
       </c>
       <c r="O16" t="n">
-        <v>149.652757755395</v>
+        <v>149.6527577553949</v>
       </c>
       <c r="P16" t="n">
         <v>128.0537875725349</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.6578049707321</v>
+        <v>88.65780497073209</v>
       </c>
       <c r="R16" t="n">
-        <v>47.60628632995775</v>
+        <v>47.60628632995774</v>
       </c>
       <c r="S16" t="n">
         <v>18.45152666690841</v>
@@ -32187,7 +32187,7 @@
         <v>4.523848478584743</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05775125717342234</v>
+        <v>0.05775125717342233</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.360352889500004</v>
+        <v>2.360352889500003</v>
       </c>
       <c r="H17" t="n">
         <v>24.17296402959192</v>
       </c>
       <c r="I17" t="n">
-        <v>90.99750477244898</v>
+        <v>90.99750477244896</v>
       </c>
       <c r="J17" t="n">
         <v>200.3320010552011</v>
@@ -32239,7 +32239,7 @@
         <v>300.2457388677363</v>
       </c>
       <c r="L17" t="n">
-        <v>372.4813886097722</v>
+        <v>372.4813886097721</v>
       </c>
       <c r="M17" t="n">
         <v>414.4573143084178</v>
@@ -32248,25 +32248,25 @@
         <v>421.1636669557097</v>
       </c>
       <c r="O17" t="n">
-        <v>397.6929079107441</v>
+        <v>397.692907910744</v>
       </c>
       <c r="P17" t="n">
-        <v>339.4216959512127</v>
+        <v>339.4216959512126</v>
       </c>
       <c r="Q17" t="n">
         <v>254.8915580959937</v>
       </c>
       <c r="R17" t="n">
-        <v>148.2685171950548</v>
+        <v>148.2685171950547</v>
       </c>
       <c r="S17" t="n">
-        <v>53.78654146948139</v>
+        <v>53.78654146948138</v>
       </c>
       <c r="T17" t="n">
         <v>10.33244477378627</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1888282311600003</v>
+        <v>0.1888282311600002</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>12.19695655039061</v>
       </c>
       <c r="I18" t="n">
-        <v>43.48143002750512</v>
+        <v>43.48143002750511</v>
       </c>
       <c r="J18" t="n">
         <v>119.3163674168774</v>
       </c>
       <c r="K18" t="n">
-        <v>203.9306763468352</v>
+        <v>203.9306763468351</v>
       </c>
       <c r="L18" t="n">
         <v>274.2099609568969</v>
@@ -32324,28 +32324,28 @@
         <v>319.9900907884038</v>
       </c>
       <c r="N18" t="n">
-        <v>328.4592763313409</v>
+        <v>328.4592763313408</v>
       </c>
       <c r="O18" t="n">
         <v>300.4760681149133</v>
       </c>
       <c r="P18" t="n">
-        <v>241.1585351003208</v>
+        <v>241.1585351003207</v>
       </c>
       <c r="Q18" t="n">
-        <v>161.2080942064343</v>
+        <v>161.2080942064342</v>
       </c>
       <c r="R18" t="n">
-        <v>78.41058897698888</v>
+        <v>78.41058897698886</v>
       </c>
       <c r="S18" t="n">
         <v>23.45781607216357</v>
       </c>
       <c r="T18" t="n">
-        <v>5.090373782837858</v>
+        <v>5.090373782837857</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08308553508440471</v>
+        <v>0.08308553508440469</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.058773048179408</v>
       </c>
       <c r="H19" t="n">
-        <v>9.413454919267835</v>
+        <v>9.413454919267833</v>
       </c>
       <c r="I19" t="n">
         <v>31.84019312161348</v>
       </c>
       <c r="J19" t="n">
-        <v>74.85525450628415</v>
+        <v>74.85525450628414</v>
       </c>
       <c r="K19" t="n">
         <v>123.0101777793894</v>
@@ -32403,7 +32403,7 @@
         <v>165.9674879068866</v>
       </c>
       <c r="N19" t="n">
-        <v>162.0211520000363</v>
+        <v>162.0211520000362</v>
       </c>
       <c r="O19" t="n">
         <v>149.6527577553949</v>
@@ -32412,19 +32412,19 @@
         <v>128.0537875725349</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.65780497073209</v>
+        <v>88.65780497073206</v>
       </c>
       <c r="R19" t="n">
-        <v>47.60628632995774</v>
+        <v>47.60628632995773</v>
       </c>
       <c r="S19" t="n">
-        <v>18.45152666690841</v>
+        <v>18.4515266669084</v>
       </c>
       <c r="T19" t="n">
-        <v>4.523848478584743</v>
+        <v>4.523848478584742</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05775125717342233</v>
+        <v>0.05775125717342232</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.360352889500004</v>
+        <v>2.360352889500003</v>
       </c>
       <c r="H20" t="n">
         <v>24.17296402959192</v>
       </c>
       <c r="I20" t="n">
-        <v>90.99750477244898</v>
+        <v>90.99750477244896</v>
       </c>
       <c r="J20" t="n">
         <v>200.3320010552011</v>
@@ -32476,7 +32476,7 @@
         <v>300.2457388677363</v>
       </c>
       <c r="L20" t="n">
-        <v>372.4813886097722</v>
+        <v>372.4813886097721</v>
       </c>
       <c r="M20" t="n">
         <v>414.4573143084178</v>
@@ -32485,25 +32485,25 @@
         <v>421.1636669557097</v>
       </c>
       <c r="O20" t="n">
-        <v>397.6929079107441</v>
+        <v>397.692907910744</v>
       </c>
       <c r="P20" t="n">
-        <v>339.4216959512127</v>
+        <v>339.4216959512126</v>
       </c>
       <c r="Q20" t="n">
         <v>254.8915580959937</v>
       </c>
       <c r="R20" t="n">
-        <v>148.2685171950548</v>
+        <v>148.2685171950547</v>
       </c>
       <c r="S20" t="n">
-        <v>53.78654146948139</v>
+        <v>53.78654146948138</v>
       </c>
       <c r="T20" t="n">
         <v>10.33244477378627</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1888282311600003</v>
+        <v>0.1888282311600002</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>12.19695655039061</v>
       </c>
       <c r="I21" t="n">
-        <v>43.48143002750512</v>
+        <v>43.48143002750511</v>
       </c>
       <c r="J21" t="n">
         <v>119.3163674168774</v>
       </c>
       <c r="K21" t="n">
-        <v>203.9306763468352</v>
+        <v>203.9306763468351</v>
       </c>
       <c r="L21" t="n">
         <v>274.2099609568969</v>
@@ -32561,28 +32561,28 @@
         <v>319.9900907884038</v>
       </c>
       <c r="N21" t="n">
-        <v>328.4592763313409</v>
+        <v>328.4592763313408</v>
       </c>
       <c r="O21" t="n">
         <v>300.4760681149133</v>
       </c>
       <c r="P21" t="n">
-        <v>241.1585351003208</v>
+        <v>241.1585351003207</v>
       </c>
       <c r="Q21" t="n">
-        <v>161.2080942064343</v>
+        <v>161.2080942064342</v>
       </c>
       <c r="R21" t="n">
-        <v>78.41058897698888</v>
+        <v>78.41058897698886</v>
       </c>
       <c r="S21" t="n">
         <v>23.45781607216357</v>
       </c>
       <c r="T21" t="n">
-        <v>5.090373782837858</v>
+        <v>5.090373782837857</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08308553508440471</v>
+        <v>0.08308553508440469</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.058773048179408</v>
       </c>
       <c r="H22" t="n">
-        <v>9.413454919267835</v>
+        <v>9.413454919267833</v>
       </c>
       <c r="I22" t="n">
         <v>31.84019312161348</v>
       </c>
       <c r="J22" t="n">
-        <v>74.85525450628415</v>
+        <v>74.85525450628414</v>
       </c>
       <c r="K22" t="n">
         <v>123.0101777793894</v>
@@ -32640,7 +32640,7 @@
         <v>165.9674879068866</v>
       </c>
       <c r="N22" t="n">
-        <v>162.0211520000363</v>
+        <v>162.0211520000362</v>
       </c>
       <c r="O22" t="n">
         <v>149.6527577553949</v>
@@ -32649,19 +32649,19 @@
         <v>128.0537875725349</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.65780497073209</v>
+        <v>88.65780497073206</v>
       </c>
       <c r="R22" t="n">
-        <v>47.60628632995774</v>
+        <v>47.60628632995773</v>
       </c>
       <c r="S22" t="n">
-        <v>18.45152666690841</v>
+        <v>18.4515266669084</v>
       </c>
       <c r="T22" t="n">
-        <v>4.523848478584743</v>
+        <v>4.523848478584742</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05775125717342233</v>
+        <v>0.05775125717342232</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.360352889500004</v>
+        <v>2.360352889500003</v>
       </c>
       <c r="H23" t="n">
         <v>24.17296402959192</v>
       </c>
       <c r="I23" t="n">
-        <v>90.99750477244898</v>
+        <v>90.99750477244896</v>
       </c>
       <c r="J23" t="n">
         <v>200.3320010552011</v>
@@ -32713,7 +32713,7 @@
         <v>300.2457388677363</v>
       </c>
       <c r="L23" t="n">
-        <v>372.4813886097722</v>
+        <v>372.4813886097721</v>
       </c>
       <c r="M23" t="n">
         <v>414.4573143084178</v>
@@ -32722,25 +32722,25 @@
         <v>421.1636669557097</v>
       </c>
       <c r="O23" t="n">
-        <v>397.6929079107441</v>
+        <v>397.692907910744</v>
       </c>
       <c r="P23" t="n">
-        <v>339.4216959512127</v>
+        <v>339.4216959512126</v>
       </c>
       <c r="Q23" t="n">
         <v>254.8915580959937</v>
       </c>
       <c r="R23" t="n">
-        <v>148.2685171950548</v>
+        <v>148.2685171950547</v>
       </c>
       <c r="S23" t="n">
-        <v>53.78654146948139</v>
+        <v>53.78654146948138</v>
       </c>
       <c r="T23" t="n">
         <v>10.33244477378627</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1888282311600003</v>
+        <v>0.1888282311600002</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>12.19695655039061</v>
       </c>
       <c r="I24" t="n">
-        <v>43.48143002750512</v>
+        <v>43.48143002750511</v>
       </c>
       <c r="J24" t="n">
         <v>119.3163674168774</v>
       </c>
       <c r="K24" t="n">
-        <v>203.9306763468352</v>
+        <v>203.9306763468351</v>
       </c>
       <c r="L24" t="n">
         <v>274.2099609568969</v>
@@ -32798,28 +32798,28 @@
         <v>319.9900907884038</v>
       </c>
       <c r="N24" t="n">
-        <v>328.4592763313409</v>
+        <v>328.4592763313408</v>
       </c>
       <c r="O24" t="n">
         <v>300.4760681149133</v>
       </c>
       <c r="P24" t="n">
-        <v>241.1585351003208</v>
+        <v>241.1585351003207</v>
       </c>
       <c r="Q24" t="n">
-        <v>161.2080942064343</v>
+        <v>161.2080942064342</v>
       </c>
       <c r="R24" t="n">
-        <v>78.41058897698888</v>
+        <v>78.41058897698886</v>
       </c>
       <c r="S24" t="n">
         <v>23.45781607216357</v>
       </c>
       <c r="T24" t="n">
-        <v>5.090373782837858</v>
+        <v>5.090373782837857</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08308553508440471</v>
+        <v>0.08308553508440469</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.058773048179408</v>
       </c>
       <c r="H25" t="n">
-        <v>9.413454919267835</v>
+        <v>9.413454919267833</v>
       </c>
       <c r="I25" t="n">
         <v>31.84019312161348</v>
       </c>
       <c r="J25" t="n">
-        <v>74.85525450628415</v>
+        <v>74.85525450628414</v>
       </c>
       <c r="K25" t="n">
         <v>123.0101777793894</v>
@@ -32877,7 +32877,7 @@
         <v>165.9674879068866</v>
       </c>
       <c r="N25" t="n">
-        <v>162.0211520000363</v>
+        <v>162.0211520000362</v>
       </c>
       <c r="O25" t="n">
         <v>149.6527577553949</v>
@@ -32886,19 +32886,19 @@
         <v>128.0537875725349</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.65780497073209</v>
+        <v>88.65780497073206</v>
       </c>
       <c r="R25" t="n">
-        <v>47.60628632995774</v>
+        <v>47.60628632995773</v>
       </c>
       <c r="S25" t="n">
-        <v>18.45152666690841</v>
+        <v>18.4515266669084</v>
       </c>
       <c r="T25" t="n">
-        <v>4.523848478584743</v>
+        <v>4.523848478584742</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05775125717342233</v>
+        <v>0.05775125717342232</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33175,40 +33175,40 @@
         <v>2.360352889500003</v>
       </c>
       <c r="H29" t="n">
-        <v>24.17296402959191</v>
+        <v>24.17296402959192</v>
       </c>
       <c r="I29" t="n">
-        <v>90.99750477244895</v>
+        <v>90.99750477244896</v>
       </c>
       <c r="J29" t="n">
         <v>200.3320010552011</v>
       </c>
       <c r="K29" t="n">
-        <v>300.2457388677362</v>
+        <v>300.2457388677363</v>
       </c>
       <c r="L29" t="n">
-        <v>372.481388609772</v>
+        <v>372.4813886097721</v>
       </c>
       <c r="M29" t="n">
-        <v>414.4573143084177</v>
+        <v>414.4573143084178</v>
       </c>
       <c r="N29" t="n">
-        <v>421.1636669557096</v>
+        <v>421.1636669557097</v>
       </c>
       <c r="O29" t="n">
-        <v>397.6929079107439</v>
+        <v>397.692907910744</v>
       </c>
       <c r="P29" t="n">
-        <v>339.4216959512125</v>
+        <v>339.4216959512126</v>
       </c>
       <c r="Q29" t="n">
-        <v>254.8915580959936</v>
+        <v>254.8915580959937</v>
       </c>
       <c r="R29" t="n">
         <v>148.2685171950547</v>
       </c>
       <c r="S29" t="n">
-        <v>53.78654146948137</v>
+        <v>53.78654146948138</v>
       </c>
       <c r="T29" t="n">
         <v>10.33244477378627</v>
@@ -33254,7 +33254,7 @@
         <v>1.262900133282951</v>
       </c>
       <c r="H30" t="n">
-        <v>12.1969565503906</v>
+        <v>12.19695655039061</v>
       </c>
       <c r="I30" t="n">
         <v>43.48143002750511</v>
@@ -33269,31 +33269,31 @@
         <v>274.2099609568969</v>
       </c>
       <c r="M30" t="n">
-        <v>319.9900907884037</v>
+        <v>319.9900907884038</v>
       </c>
       <c r="N30" t="n">
-        <v>328.4592763313407</v>
+        <v>328.4592763313408</v>
       </c>
       <c r="O30" t="n">
-        <v>300.4760681149132</v>
+        <v>300.4760681149133</v>
       </c>
       <c r="P30" t="n">
-        <v>241.1585351003206</v>
+        <v>241.1585351003207</v>
       </c>
       <c r="Q30" t="n">
         <v>161.2080942064342</v>
       </c>
       <c r="R30" t="n">
-        <v>78.41058897698885</v>
+        <v>78.41058897698886</v>
       </c>
       <c r="S30" t="n">
-        <v>23.45781607216356</v>
+        <v>23.45781607216357</v>
       </c>
       <c r="T30" t="n">
-        <v>5.090373782837856</v>
+        <v>5.090373782837857</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08308553508440468</v>
+        <v>0.08308553508440469</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,19 +33333,19 @@
         <v>1.058773048179408</v>
       </c>
       <c r="H31" t="n">
-        <v>9.413454919267831</v>
+        <v>9.413454919267833</v>
       </c>
       <c r="I31" t="n">
-        <v>31.84019312161347</v>
+        <v>31.84019312161348</v>
       </c>
       <c r="J31" t="n">
-        <v>74.85525450628413</v>
+        <v>74.85525450628414</v>
       </c>
       <c r="K31" t="n">
-        <v>123.0101777793893</v>
+        <v>123.0101777793894</v>
       </c>
       <c r="L31" t="n">
-        <v>157.4106766356912</v>
+        <v>157.4106766356913</v>
       </c>
       <c r="M31" t="n">
         <v>165.9674879068866</v>
@@ -33360,19 +33360,19 @@
         <v>128.0537875725349</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.65780497073204</v>
+        <v>88.65780497073206</v>
       </c>
       <c r="R31" t="n">
-        <v>47.60628632995772</v>
+        <v>47.60628632995773</v>
       </c>
       <c r="S31" t="n">
         <v>18.4515266669084</v>
       </c>
       <c r="T31" t="n">
-        <v>4.523848478584741</v>
+        <v>4.523848478584742</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0577512571734223</v>
+        <v>0.05775125717342232</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33649,40 +33649,40 @@
         <v>2.360352889500003</v>
       </c>
       <c r="H35" t="n">
-        <v>24.17296402959191</v>
+        <v>24.17296402959192</v>
       </c>
       <c r="I35" t="n">
-        <v>90.99750477244895</v>
+        <v>90.99750477244896</v>
       </c>
       <c r="J35" t="n">
         <v>200.3320010552011</v>
       </c>
       <c r="K35" t="n">
-        <v>300.2457388677362</v>
+        <v>300.2457388677363</v>
       </c>
       <c r="L35" t="n">
-        <v>372.481388609772</v>
+        <v>372.4813886097721</v>
       </c>
       <c r="M35" t="n">
-        <v>414.4573143084177</v>
+        <v>414.4573143084178</v>
       </c>
       <c r="N35" t="n">
-        <v>421.1636669557096</v>
+        <v>421.1636669557097</v>
       </c>
       <c r="O35" t="n">
-        <v>397.6929079107439</v>
+        <v>397.692907910744</v>
       </c>
       <c r="P35" t="n">
-        <v>339.4216959512125</v>
+        <v>339.4216959512126</v>
       </c>
       <c r="Q35" t="n">
-        <v>254.8915580959936</v>
+        <v>254.8915580959937</v>
       </c>
       <c r="R35" t="n">
         <v>148.2685171950547</v>
       </c>
       <c r="S35" t="n">
-        <v>53.78654146948137</v>
+        <v>53.78654146948138</v>
       </c>
       <c r="T35" t="n">
         <v>10.33244477378627</v>
@@ -33728,7 +33728,7 @@
         <v>1.262900133282951</v>
       </c>
       <c r="H36" t="n">
-        <v>12.1969565503906</v>
+        <v>12.19695655039061</v>
       </c>
       <c r="I36" t="n">
         <v>43.48143002750511</v>
@@ -33743,31 +33743,31 @@
         <v>274.2099609568969</v>
       </c>
       <c r="M36" t="n">
-        <v>319.9900907884037</v>
+        <v>319.9900907884038</v>
       </c>
       <c r="N36" t="n">
-        <v>328.4592763313407</v>
+        <v>328.4592763313408</v>
       </c>
       <c r="O36" t="n">
-        <v>300.4760681149132</v>
+        <v>300.4760681149133</v>
       </c>
       <c r="P36" t="n">
-        <v>241.1585351003206</v>
+        <v>241.1585351003207</v>
       </c>
       <c r="Q36" t="n">
         <v>161.2080942064342</v>
       </c>
       <c r="R36" t="n">
-        <v>78.41058897698885</v>
+        <v>78.41058897698886</v>
       </c>
       <c r="S36" t="n">
-        <v>23.45781607216356</v>
+        <v>23.45781607216357</v>
       </c>
       <c r="T36" t="n">
-        <v>5.090373782837856</v>
+        <v>5.090373782837857</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08308553508440468</v>
+        <v>0.08308553508440469</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,19 +33807,19 @@
         <v>1.058773048179408</v>
       </c>
       <c r="H37" t="n">
-        <v>9.413454919267831</v>
+        <v>9.413454919267833</v>
       </c>
       <c r="I37" t="n">
-        <v>31.84019312161347</v>
+        <v>31.84019312161348</v>
       </c>
       <c r="J37" t="n">
-        <v>74.85525450628413</v>
+        <v>74.85525450628414</v>
       </c>
       <c r="K37" t="n">
-        <v>123.0101777793893</v>
+        <v>123.0101777793894</v>
       </c>
       <c r="L37" t="n">
-        <v>157.4106766356912</v>
+        <v>157.4106766356913</v>
       </c>
       <c r="M37" t="n">
         <v>165.9674879068866</v>
@@ -33834,19 +33834,19 @@
         <v>128.0537875725349</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.65780497073204</v>
+        <v>88.65780497073206</v>
       </c>
       <c r="R37" t="n">
-        <v>47.60628632995772</v>
+        <v>47.60628632995773</v>
       </c>
       <c r="S37" t="n">
         <v>18.4515266669084</v>
       </c>
       <c r="T37" t="n">
-        <v>4.523848478584741</v>
+        <v>4.523848478584742</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0577512571734223</v>
+        <v>0.05775125717342232</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,7 +35264,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>188.3827117005887</v>
+        <v>188.3827117005886</v>
       </c>
       <c r="K11" t="n">
-        <v>404.3013003939206</v>
+        <v>404.3013003939205</v>
       </c>
       <c r="L11" t="n">
-        <v>554.3761881902354</v>
+        <v>554.3761881902353</v>
       </c>
       <c r="M11" t="n">
-        <v>633.6246145739776</v>
+        <v>633.6246145739775</v>
       </c>
       <c r="N11" t="n">
-        <v>629.0975277711032</v>
+        <v>629.0975277711029</v>
       </c>
       <c r="O11" t="n">
-        <v>548.3948777518028</v>
+        <v>548.3948777518026</v>
       </c>
       <c r="P11" t="n">
-        <v>429.9874083674259</v>
+        <v>429.9874083674257</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.900858881449</v>
+        <v>244.9008588814489</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4455680309759</v>
+        <v>330.5544743850547</v>
       </c>
       <c r="L12" t="n">
-        <v>506.495926480482</v>
+        <v>506.4959264804819</v>
       </c>
       <c r="M12" t="n">
-        <v>643.5611206163856</v>
+        <v>281.8948714596344</v>
       </c>
       <c r="N12" t="n">
-        <v>197.1175642480077</v>
+        <v>676.459938591561</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7421429471985</v>
+        <v>157.8798236704689</v>
       </c>
       <c r="P12" t="n">
-        <v>425.6468963259277</v>
+        <v>425.6468963259276</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.22632012041279</v>
+        <v>231.3036078562618</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>117.2676795551494</v>
+        <v>117.2676795551493</v>
       </c>
       <c r="L13" t="n">
-        <v>201.5276954976503</v>
+        <v>201.5276954976502</v>
       </c>
       <c r="M13" t="n">
-        <v>222.0783584703701</v>
+        <v>222.07835847037</v>
       </c>
       <c r="N13" t="n">
-        <v>222.6803179809077</v>
+        <v>222.6803179809076</v>
       </c>
       <c r="O13" t="n">
-        <v>190.7648792710775</v>
+        <v>190.7648792710774</v>
       </c>
       <c r="P13" t="n">
         <v>141.8593404390712</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.02275532068056</v>
+        <v>19.02275532068047</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>188.3827117005887</v>
+        <v>188.3827117005886</v>
       </c>
       <c r="K14" t="n">
-        <v>404.3013003939206</v>
+        <v>404.3013003939205</v>
       </c>
       <c r="L14" t="n">
-        <v>554.3761881902354</v>
+        <v>554.3761881902353</v>
       </c>
       <c r="M14" t="n">
         <v>633.6246145739776</v>
       </c>
       <c r="N14" t="n">
-        <v>629.0975277711032</v>
+        <v>629.0975277711029</v>
       </c>
       <c r="O14" t="n">
-        <v>548.3948777518028</v>
+        <v>548.3948777518027</v>
       </c>
       <c r="P14" t="n">
-        <v>429.9874083674259</v>
+        <v>429.9874083674258</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.900858881449</v>
+        <v>244.9008588814489</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>66.08923737247619</v>
+        <v>330.5544743850547</v>
       </c>
       <c r="L15" t="n">
-        <v>506.495926480482</v>
+        <v>135.6555811770227</v>
       </c>
       <c r="M15" t="n">
-        <v>643.5611206163856</v>
+        <v>643.5611206163854</v>
       </c>
       <c r="N15" t="n">
-        <v>579.2589264473886</v>
+        <v>291.7717154615394</v>
       </c>
       <c r="O15" t="n">
-        <v>157.879823670469</v>
+        <v>551.7421429471984</v>
       </c>
       <c r="P15" t="n">
         <v>425.6468963259277</v>
       </c>
       <c r="Q15" t="n">
-        <v>231.3036078562619</v>
+        <v>231.3036078562618</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.956687390847733</v>
+        <v>3.956687390847662</v>
       </c>
       <c r="K16" t="n">
-        <v>123.2012989547429</v>
+        <v>123.2012989547428</v>
       </c>
       <c r="L16" t="n">
-        <v>207.4613148972438</v>
+        <v>207.4613148972437</v>
       </c>
       <c r="M16" t="n">
-        <v>228.0119778699636</v>
+        <v>228.0119778699635</v>
       </c>
       <c r="N16" t="n">
-        <v>228.6139373805012</v>
+        <v>228.6139373805011</v>
       </c>
       <c r="O16" t="n">
-        <v>196.698498670671</v>
+        <v>196.6984986706709</v>
       </c>
       <c r="P16" t="n">
-        <v>147.7929598386648</v>
+        <v>147.7929598386647</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95637472027405</v>
+        <v>24.95637472027399</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>554.3761881902353</v>
       </c>
       <c r="M17" t="n">
-        <v>633.6246145739776</v>
+        <v>633.6246145739775</v>
       </c>
       <c r="N17" t="n">
         <v>629.0975277711029</v>
       </c>
       <c r="O17" t="n">
-        <v>548.3948777518027</v>
+        <v>548.3948777518026</v>
       </c>
       <c r="P17" t="n">
-        <v>429.9874083674258</v>
+        <v>429.9874083674257</v>
       </c>
       <c r="Q17" t="n">
         <v>244.9008588814489</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>66.08923737247616</v>
+        <v>264.3290198949707</v>
       </c>
       <c r="L18" t="n">
-        <v>506.4959264804819</v>
+        <v>135.6555811770227</v>
       </c>
       <c r="M18" t="n">
-        <v>643.5611206163854</v>
+        <v>643.5611206163853</v>
       </c>
       <c r="N18" t="n">
-        <v>395.4738949065078</v>
+        <v>676.459938591561</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7421429471984</v>
+        <v>551.7421429471983</v>
       </c>
       <c r="P18" t="n">
-        <v>425.6468963259277</v>
+        <v>107.1841276859905</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.22632012041274</v>
+        <v>231.3036078562618</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.5338969268188</v>
+        <v>63.53389692681878</v>
       </c>
       <c r="K19" t="n">
-        <v>182.778508490714</v>
+        <v>182.7785084907139</v>
       </c>
       <c r="L19" t="n">
-        <v>267.0385244332149</v>
+        <v>267.0385244332148</v>
       </c>
       <c r="M19" t="n">
         <v>287.5891874059346</v>
       </c>
       <c r="N19" t="n">
-        <v>288.1911469164723</v>
+        <v>288.1911469164722</v>
       </c>
       <c r="O19" t="n">
         <v>256.275708206642</v>
@@ -36060,7 +36060,7 @@
         <v>207.3701693746358</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.53358425624512</v>
+        <v>84.53358425624509</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.3827117005886</v>
+        <v>188.3827117005889</v>
       </c>
       <c r="K20" t="n">
         <v>404.3013003939205</v>
@@ -36127,16 +36127,16 @@
         <v>554.3761881902353</v>
       </c>
       <c r="M20" t="n">
-        <v>633.6246145739776</v>
+        <v>633.6246145739775</v>
       </c>
       <c r="N20" t="n">
         <v>629.0975277711029</v>
       </c>
       <c r="O20" t="n">
-        <v>548.3948777518027</v>
+        <v>548.3948777518026</v>
       </c>
       <c r="P20" t="n">
-        <v>429.9874083674258</v>
+        <v>429.9874083674257</v>
       </c>
       <c r="Q20" t="n">
         <v>244.9008588814489</v>
@@ -36203,19 +36203,19 @@
         <v>330.5544743850547</v>
       </c>
       <c r="L21" t="n">
-        <v>135.6555811770227</v>
+        <v>506.4959264804819</v>
       </c>
       <c r="M21" t="n">
-        <v>643.5611206163854</v>
+        <v>643.5611206163853</v>
       </c>
       <c r="N21" t="n">
-        <v>291.7717154615394</v>
+        <v>197.1175642480075</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7421429471984</v>
+        <v>551.7421429471983</v>
       </c>
       <c r="P21" t="n">
-        <v>425.6468963259277</v>
+        <v>149.460702236001</v>
       </c>
       <c r="Q21" t="n">
         <v>231.3036078562618</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.5338969268188</v>
+        <v>63.53389692681878</v>
       </c>
       <c r="K22" t="n">
-        <v>182.778508490714</v>
+        <v>182.7785084907139</v>
       </c>
       <c r="L22" t="n">
-        <v>267.0385244332149</v>
+        <v>267.0385244332148</v>
       </c>
       <c r="M22" t="n">
         <v>287.5891874059346</v>
       </c>
       <c r="N22" t="n">
-        <v>288.1911469164723</v>
+        <v>288.1911469164722</v>
       </c>
       <c r="O22" t="n">
         <v>256.275708206642</v>
@@ -36297,7 +36297,7 @@
         <v>207.3701693746358</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.53358425624512</v>
+        <v>84.53358425624509</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,16 +36364,16 @@
         <v>554.3761881902353</v>
       </c>
       <c r="M23" t="n">
-        <v>633.6246145739776</v>
+        <v>633.6246145739775</v>
       </c>
       <c r="N23" t="n">
         <v>629.0975277711029</v>
       </c>
       <c r="O23" t="n">
-        <v>548.3948777518027</v>
+        <v>548.3948777518026</v>
       </c>
       <c r="P23" t="n">
-        <v>429.9874083674258</v>
+        <v>429.9874083674257</v>
       </c>
       <c r="Q23" t="n">
         <v>244.9008588814489</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.5697760906196</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>66.08923737247616</v>
+        <v>66.08923737247611</v>
       </c>
       <c r="L24" t="n">
         <v>506.4959264804819</v>
       </c>
       <c r="M24" t="n">
-        <v>177.8560568663855</v>
+        <v>643.5611206163853</v>
       </c>
       <c r="N24" t="n">
-        <v>676.4599385915611</v>
+        <v>197.1175642480075</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7421429471984</v>
+        <v>551.7421429471983</v>
       </c>
       <c r="P24" t="n">
-        <v>281.7188525644058</v>
+        <v>413.9259392485793</v>
       </c>
       <c r="Q24" t="n">
         <v>231.3036078562618</v>
@@ -36528,13 +36528,13 @@
         <v>288.1911469164723</v>
       </c>
       <c r="O25" t="n">
-        <v>256.2757082066421</v>
+        <v>256.275708206642</v>
       </c>
       <c r="P25" t="n">
         <v>207.3701693746359</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.53358425624516</v>
+        <v>84.53358425624515</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>633.6246145739775</v>
       </c>
       <c r="N26" t="n">
-        <v>629.0975277711029</v>
+        <v>629.0975277711033</v>
       </c>
       <c r="O26" t="n">
         <v>548.3948777518026</v>
@@ -36674,22 +36674,22 @@
         <v>118.5697760906196</v>
       </c>
       <c r="K27" t="n">
-        <v>66.08923737247611</v>
+        <v>330.5544743850547</v>
       </c>
       <c r="L27" t="n">
         <v>506.4959264804819</v>
       </c>
       <c r="M27" t="n">
-        <v>513.2703874484174</v>
+        <v>177.8560568663855</v>
       </c>
       <c r="N27" t="n">
-        <v>197.1175642480075</v>
+        <v>676.459938591561</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7421429471983</v>
+        <v>157.8798236704689</v>
       </c>
       <c r="P27" t="n">
-        <v>425.6468963259276</v>
+        <v>411.1159348285569</v>
       </c>
       <c r="Q27" t="n">
         <v>231.3036078562618</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.46751632641239</v>
+        <v>69.46751632641238</v>
       </c>
       <c r="K28" t="n">
-        <v>188.7121278903076</v>
+        <v>188.7121278903075</v>
       </c>
       <c r="L28" t="n">
-        <v>272.9721438328085</v>
+        <v>272.9721438328084</v>
       </c>
       <c r="M28" t="n">
-        <v>293.5228068055283</v>
+        <v>293.5228068055282</v>
       </c>
       <c r="N28" t="n">
         <v>294.1247663160659</v>
@@ -36771,7 +36771,7 @@
         <v>213.3037887742294</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.4672036558387</v>
+        <v>90.46720365583869</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>188.3827117005885</v>
+        <v>188.3827117005886</v>
       </c>
       <c r="K29" t="n">
-        <v>404.3013003939204</v>
+        <v>404.3013003939205</v>
       </c>
       <c r="L29" t="n">
-        <v>554.3761881902352</v>
+        <v>554.3761881902353</v>
       </c>
       <c r="M29" t="n">
-        <v>633.6246145739774</v>
+        <v>633.6246145739775</v>
       </c>
       <c r="N29" t="n">
-        <v>629.0975277711028</v>
+        <v>629.0975277711029</v>
       </c>
       <c r="O29" t="n">
         <v>548.3948777518026</v>
       </c>
       <c r="P29" t="n">
-        <v>429.9874083674256</v>
+        <v>429.9874083674257</v>
       </c>
       <c r="Q29" t="n">
-        <v>244.9008588814488</v>
+        <v>244.9008588814489</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.5697760906195</v>
+        <v>37.47672495488457</v>
       </c>
       <c r="K30" t="n">
-        <v>145.7592438043517</v>
+        <v>66.08923737247611</v>
       </c>
       <c r="L30" t="n">
-        <v>135.6555811770227</v>
+        <v>506.4959264804819</v>
       </c>
       <c r="M30" t="n">
         <v>643.5611206163853</v>
@@ -36926,10 +36926,10 @@
         <v>551.7421429471983</v>
       </c>
       <c r="P30" t="n">
-        <v>107.1841276859904</v>
+        <v>107.1841276859905</v>
       </c>
       <c r="Q30" t="n">
-        <v>231.3036078562618</v>
+        <v>21.22632012041271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.53389692681887</v>
+        <v>63.53389692681884</v>
       </c>
       <c r="K31" t="n">
         <v>182.778508490714</v>
@@ -37002,13 +37002,13 @@
         <v>288.1911469164723</v>
       </c>
       <c r="O31" t="n">
-        <v>256.2757082066421</v>
+        <v>256.275708206642</v>
       </c>
       <c r="P31" t="n">
         <v>207.3701693746359</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.53358425624518</v>
+        <v>84.53358425624515</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>118.5697760906196</v>
       </c>
       <c r="K33" t="n">
-        <v>66.08923737247611</v>
+        <v>240.6239622508918</v>
       </c>
       <c r="L33" t="n">
         <v>506.4959264804819</v>
       </c>
       <c r="M33" t="n">
-        <v>643.5611206163853</v>
+        <v>177.8560568663855</v>
       </c>
       <c r="N33" t="n">
-        <v>197.1175642480075</v>
+        <v>676.459938591561</v>
       </c>
       <c r="O33" t="n">
         <v>551.7421429471983</v>
       </c>
       <c r="P33" t="n">
-        <v>425.6468963259276</v>
+        <v>107.1841276859905</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.5826507789133</v>
+        <v>231.3036078562618</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>97.57127307809905</v>
+        <v>188.3827117005886</v>
       </c>
       <c r="K35" t="n">
-        <v>404.3013003939204</v>
+        <v>404.3013003939205</v>
       </c>
       <c r="L35" t="n">
-        <v>554.3761881902352</v>
+        <v>554.3761881902353</v>
       </c>
       <c r="M35" t="n">
-        <v>633.6246145739774</v>
+        <v>633.6246145739775</v>
       </c>
       <c r="N35" t="n">
-        <v>629.0975277711028</v>
+        <v>629.0975277711029</v>
       </c>
       <c r="O35" t="n">
         <v>548.3948777518026</v>
       </c>
       <c r="P35" t="n">
-        <v>429.9874083674256</v>
+        <v>339.1759697449352</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.9008588814488</v>
+        <v>244.9008588814489</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>118.5697760906195</v>
+        <v>118.5697760906196</v>
       </c>
       <c r="K36" t="n">
-        <v>145.7592438043521</v>
+        <v>330.5544743850547</v>
       </c>
       <c r="L36" t="n">
-        <v>135.6555811770227</v>
+        <v>506.4959264804819</v>
       </c>
       <c r="M36" t="n">
         <v>643.5611206163853</v>
       </c>
       <c r="N36" t="n">
-        <v>676.459938591561</v>
+        <v>406.3012010800399</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7421429471983</v>
+        <v>157.8798236704689</v>
       </c>
       <c r="P36" t="n">
-        <v>107.1841276859904</v>
+        <v>425.6468963259276</v>
       </c>
       <c r="Q36" t="n">
-        <v>231.3036078562618</v>
+        <v>21.22632012041271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.46751632641241</v>
+        <v>69.46751632641238</v>
       </c>
       <c r="K37" t="n">
-        <v>188.7121278903076</v>
+        <v>188.7121278903075</v>
       </c>
       <c r="L37" t="n">
-        <v>272.9721438328085</v>
+        <v>272.9721438328084</v>
       </c>
       <c r="M37" t="n">
-        <v>293.5228068055283</v>
+        <v>293.5228068055282</v>
       </c>
       <c r="N37" t="n">
         <v>294.1247663160659</v>
@@ -37482,7 +37482,7 @@
         <v>213.3037887742294</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.46720365583872</v>
+        <v>90.46720365583869</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>97.57127307809864</v>
+        <v>188.3827117005886</v>
       </c>
       <c r="K38" t="n">
         <v>404.3013003939205</v>
@@ -37558,7 +37558,7 @@
         <v>548.3948777518026</v>
       </c>
       <c r="P38" t="n">
-        <v>429.9874083674257</v>
+        <v>339.1759697449352</v>
       </c>
       <c r="Q38" t="n">
         <v>244.9008588814489</v>
@@ -37622,10 +37622,10 @@
         <v>118.5697760906196</v>
       </c>
       <c r="K39" t="n">
-        <v>330.5544743850547</v>
+        <v>66.08923737247611</v>
       </c>
       <c r="L39" t="n">
-        <v>135.6555811770227</v>
+        <v>376.205193312514</v>
       </c>
       <c r="M39" t="n">
         <v>643.5611206163853</v>
@@ -37634,7 +37634,7 @@
         <v>197.1175642480075</v>
       </c>
       <c r="O39" t="n">
-        <v>527.8265180701115</v>
+        <v>551.7421429471983</v>
       </c>
       <c r="P39" t="n">
         <v>425.6468963259276</v>
@@ -37780,10 +37780,10 @@
         <v>188.3827117005886</v>
       </c>
       <c r="K41" t="n">
-        <v>404.3013003939205</v>
+        <v>313.4898617714297</v>
       </c>
       <c r="L41" t="n">
-        <v>463.5647495677454</v>
+        <v>554.3761881902353</v>
       </c>
       <c r="M41" t="n">
         <v>633.6246145739775</v>
@@ -37865,10 +37865,10 @@
         <v>506.4959264804819</v>
       </c>
       <c r="M42" t="n">
-        <v>643.5611206163853</v>
+        <v>567.2679190757759</v>
       </c>
       <c r="N42" t="n">
-        <v>330.9016504432477</v>
+        <v>197.1175642480075</v>
       </c>
       <c r="O42" t="n">
         <v>551.7421429471983</v>
@@ -37877,7 +37877,7 @@
         <v>107.1841276859905</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.22632012041271</v>
+        <v>231.3036078562618</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.46751632641237</v>
+        <v>69.46751632641238</v>
       </c>
       <c r="K43" t="n">
         <v>188.7121278903075</v>
@@ -37947,16 +37947,16 @@
         <v>293.5228068055282</v>
       </c>
       <c r="N43" t="n">
-        <v>294.1247663160658</v>
+        <v>294.1247663160659</v>
       </c>
       <c r="O43" t="n">
-        <v>262.2093276062355</v>
+        <v>262.2093276062356</v>
       </c>
       <c r="P43" t="n">
         <v>213.3037887742294</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.46720365583867</v>
+        <v>90.46720365583869</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.3827117005886</v>
+        <v>97.57127307809864</v>
       </c>
       <c r="K44" t="n">
-        <v>313.4898617714306</v>
+        <v>404.3013003939205</v>
       </c>
       <c r="L44" t="n">
         <v>554.3761881902353</v>
@@ -38096,22 +38096,22 @@
         <v>118.5697760906196</v>
       </c>
       <c r="K45" t="n">
-        <v>330.5544743850547</v>
+        <v>66.08923737247611</v>
       </c>
       <c r="L45" t="n">
-        <v>135.6555811770227</v>
+        <v>506.4959264804819</v>
       </c>
       <c r="M45" t="n">
         <v>643.5611206163853</v>
       </c>
       <c r="N45" t="n">
-        <v>676.459938591561</v>
+        <v>460.6891503567696</v>
       </c>
       <c r="O45" t="n">
         <v>157.8798236704689</v>
       </c>
       <c r="P45" t="n">
-        <v>316.2512163820168</v>
+        <v>425.6468963259276</v>
       </c>
       <c r="Q45" t="n">
         <v>231.3036078562618</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.46751632641242</v>
+        <v>69.46751632641241</v>
       </c>
       <c r="K46" t="n">
         <v>188.7121278903076</v>
@@ -38187,13 +38187,13 @@
         <v>294.1247663160659</v>
       </c>
       <c r="O46" t="n">
-        <v>262.2093276062357</v>
+        <v>262.2093276062356</v>
       </c>
       <c r="P46" t="n">
         <v>213.3037887742294</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.46720365583873</v>
+        <v>90.46720365583872</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
